--- a/江苏电信-组播(调试).xlsx
+++ b/江苏电信-组播(调试).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xiaoze\Project\IPTV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{427582D1-597F-47FA-A8A2-E1B2625DF542}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5483F3F-883F-460A-B096-DC171205658D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="239_49_1_x" sheetId="5" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="345">
   <si>
     <t>#</t>
   </si>
@@ -864,38 +864,11 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>江苏十八</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
       <t>金色频道</t>
     </r>
   </si>
   <si>
     <r>
-      <t>CITY</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>都市剧场</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <rPr>
         <sz val="10"/>
         <color theme="1"/>
@@ -1024,7 +997,187 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>快乐垂钓</t>
+      <t>书画频道</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>邳州综合</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>先锋乒羽</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>云南卫视</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>河北卫视</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>宁夏卫视</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>甘肃卫视</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>新疆卫视</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>内蒙古卫视</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>东方购物</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>连云港新闻综合</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>连云港公共</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>赣榆电视台</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>陕西卫视</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>家有购物</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>欢笑剧场</t>
     </r>
     <r>
       <rPr>
@@ -1033,502 +1186,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>(HD)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>书画频道</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>邳州综合</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>先锋乒羽</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>茶频道</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(HD)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>云南卫视</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>河北卫视</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>宁夏卫视</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>甘肃卫视</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>新疆卫视</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>内蒙古卫视</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>东方购物</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>连云港新闻综合</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>连云港公共</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>赣榆电视台</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>陕西卫视</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>家有购物</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>江苏卫视</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(HD)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>浙江卫视</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(HD)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>东方卫视</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(HD)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>北京卫视</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(HD)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>湖南卫视</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(HD)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>广东卫视</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(HD)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>黑龙江卫视</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(HD)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>深圳卫视</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(HD)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>山东卫视</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(HD)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>湖北卫视</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(HD)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>天津卫视</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(HD)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>重庆卫视</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(HD)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>江苏导视</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(HD)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>游戏直播</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>1(HD)</t>
+      <t>(4K)</t>
     </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1541,543 +1199,6 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>游戏直播</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>2(HD)</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>百事通直播</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>1(HD)</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>百事通直播</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>2(HD)</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>百事通直播</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>3(HD)</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>百事通直播</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>4(HD)</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>百事通直播</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>5(HD)</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>百事通直播</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>6(HD)</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>百事通直播</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>7(HD)</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>百事通直播</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>8(HD)</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>百事通直播</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>9(HD)</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>辽宁卫视</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(HD)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>贵州卫视</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(HD)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>生活时尚</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(HD)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>游戏风云</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(HD)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>幸福彩</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(HD)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>动漫秀场</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(HD)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>全纪实</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(HD)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>都市剧场</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(HD)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>魅力足球</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(HD)</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>欢笑剧场</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(4K)</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>四川卫视</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(HD)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>江西卫视</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(HD)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>东南卫视</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(HD)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>吉林卫视</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(HD)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>河北卫视</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(HD)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
       <t>贾汪新闻</t>
     </r>
   </si>
@@ -2092,154 +1213,6 @@
       </rPr>
       <t>苏州生活资讯</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>河南卫视</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(HD)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>金鹰纪实</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(HD)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>安徽卫视</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(HD)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>汽车频道</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(HD)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>广西卫视</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(HD)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>海南卫视</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(HD)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>云南卫视</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(HD)</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2420,22 +1393,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>HZ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>综合？</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>CCTV16HD</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -2960,41 +1917,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>CCTV1(HD)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>CCTV2(HD)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>CCTV4(HD)</t>
-  </si>
-  <si>
-    <t>CCTV17(HD)</t>
-  </si>
-  <si>
-    <t>CCTV9(HD)</t>
-  </si>
-  <si>
-    <t>CCTV10(HD)</t>
-  </si>
-  <si>
-    <t>CCTV12(HD)</t>
-  </si>
-  <si>
-    <t>CCTV14(HD)</t>
-  </si>
-  <si>
-    <t>CCTV5+(HD)</t>
-  </si>
-  <si>
-    <t>CCTV5(HD)</t>
-  </si>
-  <si>
-    <t>CETV1(HD)</t>
-  </si>
-  <si>
     <t>4K测试1(4K)</t>
   </si>
   <si>
@@ -3026,9 +1948,6 @@
     <t>CCTV8</t>
   </si>
   <si>
-    <t>CCTV9</t>
-  </si>
-  <si>
     <t>CCTV10</t>
   </si>
   <si>
@@ -3077,78 +1996,13 @@
     <t>BesTV戏曲</t>
   </si>
   <si>
-    <t>BesTV港剧</t>
-  </si>
-  <si>
     <t>BesTV动漫</t>
   </si>
   <si>
-    <t>CCTV第一剧场(HD)</t>
-  </si>
-  <si>
     <t>新沂1</t>
   </si>
   <si>
     <t>CCTV7</t>
-  </si>
-  <si>
-    <t>风云足球(HD)</t>
-  </si>
-  <si>
-    <t>高尔夫网球(HD)</t>
-  </si>
-  <si>
-    <t>世界地理(HD)</t>
-  </si>
-  <si>
-    <t>兵器科技(HD)</t>
-  </si>
-  <si>
-    <t>风云剧场(HD)</t>
-  </si>
-  <si>
-    <t>文化精品(HD)</t>
-  </si>
-  <si>
-    <t>怀旧剧场(HD)</t>
-  </si>
-  <si>
-    <t>风云音乐(HD)</t>
-  </si>
-  <si>
-    <t>女性时尚(HD)</t>
-  </si>
-  <si>
-    <r>
-      <t>BesTV</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>电影</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>BesTV</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>电视剧</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>第一财经</t>
@@ -3636,7 +2490,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>北京纪实</t>
+      <t>金鹰纪实</t>
     </r>
     <r>
       <rPr>
@@ -3658,7 +2512,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>金鹰纪实</t>
+      <t>安徽卫视</t>
     </r>
     <r>
       <rPr>
@@ -3680,7 +2534,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>安徽卫视</t>
+      <t>海南卫视</t>
     </r>
     <r>
       <rPr>
@@ -3702,7 +2556,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>海南卫视</t>
+      <t>风云足球</t>
     </r>
     <r>
       <rPr>
@@ -3724,7 +2578,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>风云足球</t>
+      <t>世界地理</t>
     </r>
     <r>
       <rPr>
@@ -3746,7 +2600,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>世界地理</t>
+      <t>兵器科技</t>
     </r>
     <r>
       <rPr>
@@ -3768,7 +2622,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>兵器科技</t>
+      <t>风云剧场</t>
     </r>
     <r>
       <rPr>
@@ -3790,7 +2644,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>风云剧场</t>
+      <t>央视精品</t>
     </r>
     <r>
       <rPr>
@@ -3812,7 +2666,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>央视精品</t>
+      <t>怀旧剧场</t>
     </r>
     <r>
       <rPr>
@@ -3834,7 +2688,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>怀旧剧场</t>
+      <t>风云音乐</t>
     </r>
     <r>
       <rPr>
@@ -3856,7 +2710,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>风云音乐</t>
+      <t>女性时尚</t>
     </r>
     <r>
       <rPr>
@@ -3878,7 +2732,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>女性时尚</t>
+      <t>第一剧场</t>
     </r>
     <r>
       <rPr>
@@ -3900,7 +2754,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>第一剧场</t>
+      <t>江苏城市</t>
     </r>
     <r>
       <rPr>
@@ -3922,7 +2776,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>江苏城市</t>
+      <t>江苏综艺</t>
     </r>
     <r>
       <rPr>
@@ -3944,7 +2798,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>江苏综艺</t>
+      <t>四川卫视</t>
     </r>
     <r>
       <rPr>
@@ -3966,7 +2820,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>四川卫视</t>
+      <t>江西卫视</t>
     </r>
     <r>
       <rPr>
@@ -3988,7 +2842,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>江西卫视</t>
+      <t>东南卫视</t>
     </r>
     <r>
       <rPr>
@@ -4010,7 +2864,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>东南卫视</t>
+      <t>吉林卫视</t>
     </r>
     <r>
       <rPr>
@@ -4032,7 +2886,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>吉林卫视</t>
+      <t>河北卫视</t>
     </r>
     <r>
       <rPr>
@@ -4046,6 +2900,10 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>CETV1HD</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -4054,7 +2912,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>河北卫视</t>
+      <t>江苏影视</t>
     </r>
     <r>
       <rPr>
@@ -4068,10 +2926,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>CETV1HD</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -4080,7 +2934,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>江苏体育</t>
+      <t>优漫卡通</t>
     </r>
     <r>
       <rPr>
@@ -4102,7 +2956,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>江苏影视</t>
+      <t>江苏教育</t>
     </r>
     <r>
       <rPr>
@@ -4116,72 +2970,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF080808"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>优漫卡通</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF080808"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>HD</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF080808"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>江苏新闻</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF080808"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>HD</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF080808"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>江苏教育</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF080808"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>HD</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>igmp://239.49.8.19:9614</t>
   </si>
   <si>
@@ -4272,6 +3060,420 @@
   </si>
   <si>
     <t>从此开始端口号为6000</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>风云足球HD</t>
+  </si>
+  <si>
+    <t>高尔夫网球HD</t>
+  </si>
+  <si>
+    <t>世界地理HD</t>
+  </si>
+  <si>
+    <t>兵器科技HD</t>
+  </si>
+  <si>
+    <t>风云剧场HD</t>
+  </si>
+  <si>
+    <t>文化精品HD</t>
+  </si>
+  <si>
+    <t>怀旧剧场HD</t>
+  </si>
+  <si>
+    <t>风云音乐HD</t>
+  </si>
+  <si>
+    <t>女性时尚HD</t>
+  </si>
+  <si>
+    <t>快乐垂钓HD</t>
+  </si>
+  <si>
+    <t>茶频道HD</t>
+  </si>
+  <si>
+    <t>CCTV1HD</t>
+  </si>
+  <si>
+    <t>CCTV2HD</t>
+  </si>
+  <si>
+    <t>CCTV4HD</t>
+  </si>
+  <si>
+    <t>CCTV17HD</t>
+  </si>
+  <si>
+    <t>CCTV9HD</t>
+  </si>
+  <si>
+    <t>CCTV10HD</t>
+  </si>
+  <si>
+    <t>CCTV12HD</t>
+  </si>
+  <si>
+    <t>CCTV14HD</t>
+  </si>
+  <si>
+    <t>CCTV5+HD</t>
+  </si>
+  <si>
+    <t>江苏卫视HD</t>
+  </si>
+  <si>
+    <t>浙江卫视HD</t>
+  </si>
+  <si>
+    <t>东方卫视HD</t>
+  </si>
+  <si>
+    <t>北京卫视HD</t>
+  </si>
+  <si>
+    <t>湖南卫视HD</t>
+  </si>
+  <si>
+    <t>广东卫视HD</t>
+  </si>
+  <si>
+    <t>黑龙江卫视HD</t>
+  </si>
+  <si>
+    <t>深圳卫视HD</t>
+  </si>
+  <si>
+    <t>山东卫视HD</t>
+  </si>
+  <si>
+    <t>湖北卫视HD</t>
+  </si>
+  <si>
+    <t>天津卫视HD</t>
+  </si>
+  <si>
+    <t>重庆卫视HD</t>
+  </si>
+  <si>
+    <t>江苏导视HD</t>
+  </si>
+  <si>
+    <t>游戏直播1HD</t>
+  </si>
+  <si>
+    <t>游戏直播2HD</t>
+  </si>
+  <si>
+    <t>百事通直播1HD</t>
+  </si>
+  <si>
+    <t>百事通直播2HD</t>
+  </si>
+  <si>
+    <t>百事通直播3HD</t>
+  </si>
+  <si>
+    <t>百事通直播4HD</t>
+  </si>
+  <si>
+    <t>百事通直播5HD</t>
+  </si>
+  <si>
+    <t>百事通直播6HD</t>
+  </si>
+  <si>
+    <t>百事通直播7HD</t>
+  </si>
+  <si>
+    <t>百事通直播8HD</t>
+  </si>
+  <si>
+    <t>CCTV5HD</t>
+  </si>
+  <si>
+    <t>百事通直播9HD</t>
+  </si>
+  <si>
+    <t>辽宁卫视HD</t>
+  </si>
+  <si>
+    <t>贵州卫视HD</t>
+  </si>
+  <si>
+    <t>生活时尚HD</t>
+  </si>
+  <si>
+    <t>游戏风云HD</t>
+  </si>
+  <si>
+    <t>幸福彩HD</t>
+  </si>
+  <si>
+    <t>动漫秀场HD</t>
+  </si>
+  <si>
+    <t>全纪实HD</t>
+  </si>
+  <si>
+    <t>都市剧场HD</t>
+  </si>
+  <si>
+    <t>魅力足球HD</t>
+  </si>
+  <si>
+    <t>四川卫视HD</t>
+  </si>
+  <si>
+    <t>江西卫视HD</t>
+  </si>
+  <si>
+    <t>东南卫视HD</t>
+  </si>
+  <si>
+    <t>吉林卫视HD</t>
+  </si>
+  <si>
+    <t>河北卫视HD</t>
+  </si>
+  <si>
+    <t>CETV1HD</t>
+  </si>
+  <si>
+    <t>河南卫视HD</t>
+  </si>
+  <si>
+    <t>金鹰纪实HD</t>
+  </si>
+  <si>
+    <t>安徽卫视HD</t>
+  </si>
+  <si>
+    <t>汽车频道HD</t>
+  </si>
+  <si>
+    <t>广西卫视HD</t>
+  </si>
+  <si>
+    <t>海南卫视HD</t>
+  </si>
+  <si>
+    <t>云南卫视HD</t>
+  </si>
+  <si>
+    <t>十八频道</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>BesTV</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>电影</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-1</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>BesTV</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>电影</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-2</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>BesTV</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>电影</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-3</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>BesTV</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>电视剧</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-1</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>BesTV</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>电视剧</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-2</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>BesTV</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>电视剧</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-3</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>BesTV</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>电视剧</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-4</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>第一剧场</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>HD</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>都市剧场</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>CGTN英语</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>洪泽综合</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -4279,7 +3481,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4384,6 +3586,14 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF080808"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -4431,7 +3641,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4498,12 +3708,25 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1" xr:uid="{FC8E1003-F58B-4F47-8A6E-475BAE980FD8}"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -4784,10 +4007,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A30D640B-666D-4D33-8027-302D9DED9638}">
   <dimension ref="A1:E256"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A233" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C17" sqref="C17"/>
-      <selection pane="bottomLeft" activeCell="C191" sqref="C191"/>
+      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.25"/>
@@ -4818,7 +4041,7 @@
     </row>
     <row r="2" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>167</v>
+        <v>118</v>
       </c>
       <c r="B2" s="7" t="str">
         <f t="shared" ref="B2:B65" si="0">CONCATENATE("igmp://239.49.1.",D2,":6000")</f>
@@ -4835,7 +4058,7 @@
     </row>
     <row r="3" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>215</v>
+        <v>154</v>
       </c>
       <c r="B3" s="7" t="str">
         <f t="shared" si="0"/>
@@ -4852,7 +4075,7 @@
     </row>
     <row r="4" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>216</v>
+        <v>155</v>
       </c>
       <c r="B4" s="7" t="str">
         <f t="shared" si="0"/>
@@ -4869,7 +4092,7 @@
     </row>
     <row r="5" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>217</v>
+        <v>156</v>
       </c>
       <c r="B5" s="7" t="str">
         <f t="shared" si="0"/>
@@ -4886,7 +4109,7 @@
     </row>
     <row r="6" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>164</v>
+        <v>115</v>
       </c>
       <c r="B6" s="7" t="str">
         <f t="shared" si="0"/>
@@ -4903,7 +4126,7 @@
     </row>
     <row r="7" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>218</v>
+        <v>157</v>
       </c>
       <c r="B7" s="7" t="str">
         <f t="shared" si="0"/>
@@ -4920,7 +4143,7 @@
     </row>
     <row r="8" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>219</v>
+        <v>158</v>
       </c>
       <c r="B8" s="7" t="str">
         <f t="shared" si="0"/>
@@ -4937,7 +4160,7 @@
     </row>
     <row r="9" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>220</v>
+        <v>159</v>
       </c>
       <c r="B9" s="7" t="str">
         <f t="shared" si="0"/>
@@ -4953,8 +4176,8 @@
       <c r="E9" s="6"/>
     </row>
     <row r="10" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>221</v>
+      <c r="A10" s="23" t="s">
+        <v>343</v>
       </c>
       <c r="B10" s="7" t="str">
         <f t="shared" si="0"/>
@@ -4962,7 +4185,7 @@
       </c>
       <c r="C10" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>CCTV9,igmp://239.49.1.9:6000</v>
+        <v>CGTN英语,igmp://239.49.1.9:6000</v>
       </c>
       <c r="D10" s="6">
         <v>9</v>
@@ -4971,7 +4194,7 @@
     </row>
     <row r="11" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>222</v>
+        <v>160</v>
       </c>
       <c r="B11" s="7" t="str">
         <f t="shared" si="0"/>
@@ -4988,7 +4211,7 @@
     </row>
     <row r="12" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>223</v>
+        <v>161</v>
       </c>
       <c r="B12" s="7" t="str">
         <f t="shared" si="0"/>
@@ -5005,7 +4228,7 @@
     </row>
     <row r="13" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>224</v>
+        <v>162</v>
       </c>
       <c r="B13" s="7" t="str">
         <f t="shared" si="0"/>
@@ -5022,7 +4245,7 @@
     </row>
     <row r="14" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>225</v>
+        <v>163</v>
       </c>
       <c r="B14" s="7" t="str">
         <f t="shared" si="0"/>
@@ -5039,7 +4262,7 @@
     </row>
     <row r="15" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>226</v>
+        <v>164</v>
       </c>
       <c r="B15" s="7" t="str">
         <f t="shared" si="0"/>
@@ -5056,7 +4279,7 @@
     </row>
     <row r="16" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>227</v>
+        <v>165</v>
       </c>
       <c r="B16" s="7" t="str">
         <f t="shared" si="0"/>
@@ -5328,7 +4551,7 @@
     </row>
     <row r="32" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
-        <v>168</v>
+        <v>119</v>
       </c>
       <c r="B32" s="7" t="str">
         <f t="shared" si="0"/>
@@ -5634,7 +4857,7 @@
     </row>
     <row r="50" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="9" t="s">
-        <v>151</v>
+        <v>102</v>
       </c>
       <c r="B50" s="7" t="str">
         <f t="shared" si="0"/>
@@ -5719,7 +4942,7 @@
     </row>
     <row r="55" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
-        <v>228</v>
+        <v>166</v>
       </c>
       <c r="B55" s="7" t="str">
         <f t="shared" si="0"/>
@@ -5736,7 +4959,7 @@
     </row>
     <row r="56" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
-        <v>229</v>
+        <v>167</v>
       </c>
       <c r="B56" s="7" t="str">
         <f t="shared" si="0"/>
@@ -5753,7 +4976,7 @@
     </row>
     <row r="57" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
-        <v>230</v>
+        <v>168</v>
       </c>
       <c r="B57" s="7" t="str">
         <f t="shared" si="0"/>
@@ -5838,7 +5061,7 @@
     </row>
     <row r="62" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
-        <v>243</v>
+        <v>266</v>
       </c>
       <c r="B62" s="7" t="str">
         <f t="shared" si="0"/>
@@ -5846,7 +5069,7 @@
       </c>
       <c r="C62" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>风云足球(HD),igmp://239.49.1.61:6000</v>
+        <v>风云足球HD,igmp://239.49.1.61:6000</v>
       </c>
       <c r="D62" s="6">
         <v>61</v>
@@ -5855,7 +5078,7 @@
     </row>
     <row r="63" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
-        <v>244</v>
+        <v>267</v>
       </c>
       <c r="B63" s="7" t="str">
         <f t="shared" si="0"/>
@@ -5863,7 +5086,7 @@
       </c>
       <c r="C63" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>高尔夫网球(HD),igmp://239.49.1.62:6000</v>
+        <v>高尔夫网球HD,igmp://239.49.1.62:6000</v>
       </c>
       <c r="D63" s="6">
         <v>62</v>
@@ -5872,7 +5095,7 @@
     </row>
     <row r="64" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
-        <v>245</v>
+        <v>268</v>
       </c>
       <c r="B64" s="7" t="str">
         <f t="shared" si="0"/>
@@ -5880,7 +5103,7 @@
       </c>
       <c r="C64" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>世界地理(HD),igmp://239.49.1.63:6000</v>
+        <v>世界地理HD,igmp://239.49.1.63:6000</v>
       </c>
       <c r="D64" s="6">
         <v>63</v>
@@ -5889,7 +5112,7 @@
     </row>
     <row r="65" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
-        <v>246</v>
+        <v>269</v>
       </c>
       <c r="B65" s="7" t="str">
         <f t="shared" si="0"/>
@@ -5897,7 +5120,7 @@
       </c>
       <c r="C65" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>兵器科技(HD),igmp://239.49.1.64:6000</v>
+        <v>兵器科技HD,igmp://239.49.1.64:6000</v>
       </c>
       <c r="D65" s="6">
         <v>64</v>
@@ -5906,7 +5129,7 @@
     </row>
     <row r="66" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
-        <v>247</v>
+        <v>270</v>
       </c>
       <c r="B66" s="7" t="str">
         <f t="shared" ref="B66:B129" si="2">CONCATENATE("igmp://239.49.1.",D66,":6000")</f>
@@ -5914,7 +5137,7 @@
       </c>
       <c r="C66" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>风云剧场(HD),igmp://239.49.1.65:6000</v>
+        <v>风云剧场HD,igmp://239.49.1.65:6000</v>
       </c>
       <c r="D66" s="6">
         <v>65</v>
@@ -5923,7 +5146,7 @@
     </row>
     <row r="67" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
-        <v>248</v>
+        <v>271</v>
       </c>
       <c r="B67" s="7" t="str">
         <f t="shared" si="2"/>
@@ -5931,7 +5154,7 @@
       </c>
       <c r="C67" s="7" t="str">
         <f t="shared" ref="C67:C130" si="3">IF(A67="#",CONCATENATE(D67,",",B67),CONCATENATE(A67,",",B67))</f>
-        <v>文化精品(HD),igmp://239.49.1.66:6000</v>
+        <v>文化精品HD,igmp://239.49.1.66:6000</v>
       </c>
       <c r="D67" s="6">
         <v>66</v>
@@ -5940,7 +5163,7 @@
     </row>
     <row r="68" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
-        <v>249</v>
+        <v>272</v>
       </c>
       <c r="B68" s="7" t="str">
         <f t="shared" si="2"/>
@@ -5948,7 +5171,7 @@
       </c>
       <c r="C68" s="7" t="str">
         <f t="shared" si="3"/>
-        <v>怀旧剧场(HD),igmp://239.49.1.67:6000</v>
+        <v>怀旧剧场HD,igmp://239.49.1.67:6000</v>
       </c>
       <c r="D68" s="6">
         <v>67</v>
@@ -5957,7 +5180,7 @@
     </row>
     <row r="69" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="6" t="s">
-        <v>250</v>
+        <v>273</v>
       </c>
       <c r="B69" s="7" t="str">
         <f t="shared" si="2"/>
@@ -5965,7 +5188,7 @@
       </c>
       <c r="C69" s="7" t="str">
         <f t="shared" si="3"/>
-        <v>风云音乐(HD),igmp://239.49.1.68:6000</v>
+        <v>风云音乐HD,igmp://239.49.1.68:6000</v>
       </c>
       <c r="D69" s="6">
         <v>68</v>
@@ -5974,7 +5197,7 @@
     </row>
     <row r="70" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="6" t="s">
-        <v>251</v>
+        <v>274</v>
       </c>
       <c r="B70" s="7" t="str">
         <f t="shared" si="2"/>
@@ -5982,7 +5205,7 @@
       </c>
       <c r="C70" s="7" t="str">
         <f t="shared" si="3"/>
-        <v>女性时尚(HD),igmp://239.49.1.69:6000</v>
+        <v>女性时尚HD,igmp://239.49.1.69:6000</v>
       </c>
       <c r="D70" s="6">
         <v>69</v>
@@ -6501,7 +5724,7 @@
     </row>
     <row r="101" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="11" t="s">
-        <v>231</v>
+        <v>169</v>
       </c>
       <c r="B101" s="7" t="str">
         <f t="shared" si="2"/>
@@ -6518,7 +5741,7 @@
     </row>
     <row r="102" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="11" t="s">
-        <v>232</v>
+        <v>170</v>
       </c>
       <c r="B102" s="7" t="str">
         <f t="shared" si="2"/>
@@ -6586,7 +5809,7 @@
     </row>
     <row r="106" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="6" t="s">
-        <v>233</v>
+        <v>171</v>
       </c>
       <c r="B106" s="7" t="str">
         <f t="shared" si="2"/>
@@ -6603,7 +5826,7 @@
     </row>
     <row r="107" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="6" t="s">
-        <v>234</v>
+        <v>172</v>
       </c>
       <c r="B107" s="7" t="str">
         <f t="shared" si="2"/>
@@ -6620,7 +5843,7 @@
     </row>
     <row r="108" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="6" t="s">
-        <v>235</v>
+        <v>173</v>
       </c>
       <c r="B108" s="7" t="str">
         <f t="shared" si="2"/>
@@ -6637,7 +5860,7 @@
     </row>
     <row r="109" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="18" t="s">
-        <v>236</v>
+        <v>174</v>
       </c>
       <c r="B109" s="7" t="str">
         <f t="shared" si="2"/>
@@ -6807,7 +6030,7 @@
     </row>
     <row r="119" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="6" t="s">
-        <v>252</v>
+        <v>334</v>
       </c>
       <c r="B119" s="7" t="str">
         <f t="shared" si="2"/>
@@ -6815,7 +6038,7 @@
       </c>
       <c r="C119" s="7" t="str">
         <f t="shared" si="3"/>
-        <v>BesTV电影,igmp://239.49.1.118:6000</v>
+        <v>BesTV电影-1,igmp://239.49.1.118:6000</v>
       </c>
       <c r="D119" s="6">
         <v>118</v>
@@ -6841,7 +6064,7 @@
     </row>
     <row r="121" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="6" t="s">
-        <v>237</v>
+        <v>175</v>
       </c>
       <c r="B121" s="7" t="str">
         <f t="shared" si="2"/>
@@ -6875,7 +6098,7 @@
     </row>
     <row r="123" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="6" t="s">
-        <v>253</v>
+        <v>337</v>
       </c>
       <c r="B123" s="7" t="str">
         <f t="shared" si="2"/>
@@ -6883,7 +6106,7 @@
       </c>
       <c r="C123" s="7" t="str">
         <f t="shared" si="3"/>
-        <v>BesTV电视剧,igmp://239.49.1.122:6000</v>
+        <v>BesTV电视剧-1,igmp://239.49.1.122:6000</v>
       </c>
       <c r="D123" s="6">
         <v>122</v>
@@ -7198,7 +6421,7 @@
     </row>
     <row r="142" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="9" t="s">
-        <v>214</v>
+        <v>153</v>
       </c>
       <c r="B142" s="10" t="str">
         <f t="shared" si="4"/>
@@ -7469,8 +6692,8 @@
       <c r="E157" s="9"/>
     </row>
     <row r="158" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="6" t="s">
-        <v>70</v>
+      <c r="A158" s="9" t="s">
+        <v>333</v>
       </c>
       <c r="B158" s="7" t="str">
         <f t="shared" si="4"/>
@@ -7478,7 +6701,7 @@
       </c>
       <c r="C158" s="7" t="str">
         <f t="shared" si="5"/>
-        <v>江苏十八,igmp://239.49.1.157:6000</v>
+        <v>十八频道,igmp://239.49.1.157:6000</v>
       </c>
       <c r="D158" s="6">
         <v>157</v>
@@ -7487,7 +6710,7 @@
     </row>
     <row r="159" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="9" t="s">
-        <v>152</v>
+        <v>103</v>
       </c>
       <c r="B159" s="10" t="str">
         <f t="shared" si="4"/>
@@ -7657,7 +6880,7 @@
     </row>
     <row r="169" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="9" t="s">
-        <v>254</v>
+        <v>179</v>
       </c>
       <c r="B169" s="7" t="str">
         <f t="shared" si="4"/>
@@ -7674,7 +6897,7 @@
     </row>
     <row r="170" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B170" s="7" t="str">
         <f t="shared" si="4"/>
@@ -7690,8 +6913,8 @@
       <c r="E170" s="6"/>
     </row>
     <row r="171" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A171" s="6" t="s">
-        <v>72</v>
+      <c r="A171" s="9" t="s">
+        <v>342</v>
       </c>
       <c r="B171" s="7" t="str">
         <f t="shared" si="4"/>
@@ -7699,7 +6922,7 @@
       </c>
       <c r="C171" s="7" t="str">
         <f t="shared" si="5"/>
-        <v>CITY都市剧场,igmp://239.49.1.170:6000</v>
+        <v>都市剧场,igmp://239.49.1.170:6000</v>
       </c>
       <c r="D171" s="6">
         <v>170</v>
@@ -7708,7 +6931,7 @@
     </row>
     <row r="172" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B172" s="7" t="str">
         <f t="shared" si="4"/>
@@ -7725,7 +6948,7 @@
     </row>
     <row r="173" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B173" s="7" t="str">
         <f t="shared" si="4"/>
@@ -7742,7 +6965,7 @@
     </row>
     <row r="174" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B174" s="7" t="str">
         <f t="shared" si="4"/>
@@ -7759,7 +6982,7 @@
     </row>
     <row r="175" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B175" s="7" t="str">
         <f t="shared" si="4"/>
@@ -7776,7 +6999,7 @@
     </row>
     <row r="176" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B176" s="7" t="str">
         <f t="shared" si="4"/>
@@ -7810,7 +7033,7 @@
     </row>
     <row r="178" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="9" t="s">
-        <v>255</v>
+        <v>180</v>
       </c>
       <c r="B178" s="7" t="str">
         <f t="shared" si="4"/>
@@ -7827,7 +7050,7 @@
     </row>
     <row r="179" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="9" t="s">
-        <v>256</v>
+        <v>181</v>
       </c>
       <c r="B179" s="7" t="str">
         <f t="shared" si="4"/>
@@ -7844,7 +7067,7 @@
     </row>
     <row r="180" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B180" s="7" t="str">
         <f t="shared" si="4"/>
@@ -7861,7 +7084,7 @@
     </row>
     <row r="181" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B181" s="7" t="str">
         <f t="shared" si="4"/>
@@ -7878,7 +7101,7 @@
     </row>
     <row r="182" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B182" s="7" t="str">
         <f t="shared" si="4"/>
@@ -7895,7 +7118,7 @@
     </row>
     <row r="183" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B183" s="7" t="str">
         <f t="shared" si="4"/>
@@ -8014,7 +7237,7 @@
     </row>
     <row r="190" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B190" s="7" t="str">
         <f t="shared" si="4"/>
@@ -8031,7 +7254,7 @@
     </row>
     <row r="191" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="6" t="s">
-        <v>165</v>
+        <v>116</v>
       </c>
       <c r="B191" s="7" t="str">
         <f t="shared" si="4"/>
@@ -8065,7 +7288,7 @@
     </row>
     <row r="193" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="6" t="s">
-        <v>169</v>
+        <v>120</v>
       </c>
       <c r="B193" s="7" t="str">
         <f t="shared" si="4"/>
@@ -8082,7 +7305,7 @@
     </row>
     <row r="194" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="9" t="s">
-        <v>255</v>
+        <v>180</v>
       </c>
       <c r="B194" s="7" t="str">
         <f t="shared" ref="B194:B255" si="6">CONCATENATE("igmp://239.49.1.",D194,":6000")</f>
@@ -8133,7 +7356,7 @@
     </row>
     <row r="197" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="6" t="s">
-        <v>252</v>
+        <v>335</v>
       </c>
       <c r="B197" s="7" t="str">
         <f t="shared" si="6"/>
@@ -8141,7 +7364,7 @@
       </c>
       <c r="C197" s="7" t="str">
         <f t="shared" si="7"/>
-        <v>BesTV电影,igmp://239.49.1.196:6000</v>
+        <v>BesTV电影-2,igmp://239.49.1.196:6000</v>
       </c>
       <c r="D197" s="6">
         <v>196</v>
@@ -8150,7 +7373,7 @@
     </row>
     <row r="198" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="6" t="s">
-        <v>252</v>
+        <v>336</v>
       </c>
       <c r="B198" s="7" t="str">
         <f t="shared" si="6"/>
@@ -8158,7 +7381,7 @@
       </c>
       <c r="C198" s="7" t="str">
         <f t="shared" si="7"/>
-        <v>BesTV电影,igmp://239.49.1.197:6000</v>
+        <v>BesTV电影-3,igmp://239.49.1.197:6000</v>
       </c>
       <c r="D198" s="6">
         <v>197</v>
@@ -8167,7 +7390,7 @@
     </row>
     <row r="199" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="6" t="s">
-        <v>253</v>
+        <v>338</v>
       </c>
       <c r="B199" s="7" t="str">
         <f t="shared" si="6"/>
@@ -8175,7 +7398,7 @@
       </c>
       <c r="C199" s="7" t="str">
         <f t="shared" si="7"/>
-        <v>BesTV电视剧,igmp://239.49.1.198:6000</v>
+        <v>BesTV电视剧-2,igmp://239.49.1.198:6000</v>
       </c>
       <c r="D199" s="6">
         <v>198</v>
@@ -8184,7 +7407,7 @@
     </row>
     <row r="200" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="9" t="s">
-        <v>254</v>
+        <v>179</v>
       </c>
       <c r="B200" s="7" t="str">
         <f t="shared" si="6"/>
@@ -8218,7 +7441,7 @@
     </row>
     <row r="202" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="6" t="s">
-        <v>238</v>
+        <v>339</v>
       </c>
       <c r="B202" s="7" t="str">
         <f t="shared" si="6"/>
@@ -8226,7 +7449,7 @@
       </c>
       <c r="C202" s="7" t="str">
         <f t="shared" si="7"/>
-        <v>BesTV港剧,igmp://239.49.1.201:6000</v>
+        <v>BesTV电视剧-3,igmp://239.49.1.201:6000</v>
       </c>
       <c r="D202" s="6">
         <v>201</v>
@@ -8405,7 +7628,7 @@
     </row>
     <row r="213" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="6" t="s">
-        <v>253</v>
+        <v>340</v>
       </c>
       <c r="B213" s="7" t="str">
         <f t="shared" si="6"/>
@@ -8413,7 +7636,7 @@
       </c>
       <c r="C213" s="7" t="str">
         <f t="shared" si="7"/>
-        <v>BesTV电视剧,igmp://239.49.1.212:6000</v>
+        <v>BesTV电视剧-4,igmp://239.49.1.212:6000</v>
       </c>
       <c r="D213" s="6">
         <v>212</v>
@@ -8422,7 +7645,7 @@
     </row>
     <row r="214" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="6" t="s">
-        <v>239</v>
+        <v>176</v>
       </c>
       <c r="B214" s="7" t="str">
         <f t="shared" si="6"/>
@@ -8625,8 +7848,8 @@
       <c r="E225" s="6"/>
     </row>
     <row r="226" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A226" s="6" t="s">
-        <v>83</v>
+      <c r="A226" s="19" t="s">
+        <v>275</v>
       </c>
       <c r="B226" s="7" t="str">
         <f t="shared" si="6"/>
@@ -8634,7 +7857,7 @@
       </c>
       <c r="C226" s="7" t="str">
         <f t="shared" si="7"/>
-        <v>快乐垂钓(HD),igmp://239.49.1.225:6000</v>
+        <v>快乐垂钓HD,igmp://239.49.1.225:6000</v>
       </c>
       <c r="D226" s="6">
         <v>225</v>
@@ -8642,8 +7865,8 @@
       <c r="E226" s="6"/>
     </row>
     <row r="227" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A227" s="6" t="s">
-        <v>240</v>
+      <c r="A227" s="19" t="s">
+        <v>341</v>
       </c>
       <c r="B227" s="7" t="str">
         <f t="shared" si="6"/>
@@ -8651,7 +7874,7 @@
       </c>
       <c r="C227" s="7" t="str">
         <f t="shared" si="7"/>
-        <v>CCTV第一剧场(HD),igmp://239.49.1.226:6000</v>
+        <v>第一剧场HD,igmp://239.49.1.226:6000</v>
       </c>
       <c r="D227" s="6">
         <v>226</v>
@@ -8660,7 +7883,7 @@
     </row>
     <row r="228" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="6" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B228" s="7" t="str">
         <f t="shared" si="6"/>
@@ -8677,7 +7900,7 @@
     </row>
     <row r="229" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="6" t="s">
-        <v>241</v>
+        <v>177</v>
       </c>
       <c r="B229" s="7" t="str">
         <f t="shared" si="6"/>
@@ -8745,7 +7968,7 @@
     </row>
     <row r="233" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="6" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B233" s="7" t="str">
         <f t="shared" si="6"/>
@@ -8762,7 +7985,7 @@
     </row>
     <row r="234" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="6" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B234" s="7" t="str">
         <f t="shared" si="6"/>
@@ -8779,7 +8002,7 @@
     </row>
     <row r="235" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="6" t="s">
-        <v>87</v>
+        <v>276</v>
       </c>
       <c r="B235" s="7" t="str">
         <f t="shared" si="6"/>
@@ -8787,7 +8010,7 @@
       </c>
       <c r="C235" s="7" t="str">
         <f t="shared" si="7"/>
-        <v>茶频道(HD),igmp://239.49.1.234:6000</v>
+        <v>茶频道HD,igmp://239.49.1.234:6000</v>
       </c>
       <c r="D235" s="6">
         <v>234</v>
@@ -8796,7 +8019,7 @@
     </row>
     <row r="236" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="6" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B236" s="7" t="str">
         <f t="shared" si="6"/>
@@ -8813,7 +8036,7 @@
     </row>
     <row r="237" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="6" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B237" s="7" t="str">
         <f t="shared" si="6"/>
@@ -8830,7 +8053,7 @@
     </row>
     <row r="238" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="6" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B238" s="7" t="str">
         <f t="shared" si="6"/>
@@ -8847,7 +8070,7 @@
     </row>
     <row r="239" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="6" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B239" s="7" t="str">
         <f t="shared" si="6"/>
@@ -8864,7 +8087,7 @@
     </row>
     <row r="240" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="6" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B240" s="7" t="str">
         <f t="shared" si="6"/>
@@ -8881,7 +8104,7 @@
     </row>
     <row r="241" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="6" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B241" s="7" t="str">
         <f t="shared" si="6"/>
@@ -8898,7 +8121,7 @@
     </row>
     <row r="242" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="6" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B242" s="7" t="str">
         <f t="shared" si="6"/>
@@ -8949,7 +8172,7 @@
     </row>
     <row r="245" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="6" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B245" s="7" t="str">
         <f t="shared" si="6"/>
@@ -8966,7 +8189,7 @@
     </row>
     <row r="246" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B246" s="7" t="str">
         <f t="shared" si="6"/>
@@ -8983,7 +8206,7 @@
     </row>
     <row r="247" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="9" t="s">
-        <v>257</v>
+        <v>182</v>
       </c>
       <c r="B247" s="10" t="str">
         <f t="shared" si="6"/>
@@ -9000,7 +8223,7 @@
     </row>
     <row r="248" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="6" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B248" s="7" t="str">
         <f t="shared" si="6"/>
@@ -9017,7 +8240,7 @@
     </row>
     <row r="249" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="6" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B249" s="7" t="str">
         <f t="shared" si="6"/>
@@ -9034,7 +8257,7 @@
     </row>
     <row r="250" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="9" t="s">
-        <v>258</v>
+        <v>183</v>
       </c>
       <c r="B250" s="7" t="str">
         <f t="shared" si="6"/>
@@ -9051,7 +8274,7 @@
     </row>
     <row r="251" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="19" t="s">
-        <v>259</v>
+        <v>184</v>
       </c>
       <c r="B251" s="7" t="str">
         <f t="shared" si="6"/>
@@ -9085,7 +8308,7 @@
     </row>
     <row r="253" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="6" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B253" s="7" t="str">
         <f t="shared" si="6"/>
@@ -9119,7 +8342,7 @@
     </row>
     <row r="255" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="6" t="s">
-        <v>242</v>
+        <v>178</v>
       </c>
       <c r="B255" s="7" t="str">
         <f t="shared" si="6"/>
@@ -9138,7 +8361,10 @@
   </sheetData>
   <autoFilter ref="A1:E255" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="4" type="noConversion"/>
-  <conditionalFormatting sqref="A1:A1048576">
+  <conditionalFormatting sqref="A1:A9 A11:A1048576">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A10">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -9151,9 +8377,9 @@
   <dimension ref="A1:F255"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A209" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G113" sqref="G113"/>
-      <selection pane="bottomLeft" activeCell="C125" sqref="C125"/>
+      <selection pane="bottomLeft" activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -9196,7 +8422,7 @@
       </c>
       <c r="E2" s="13"/>
       <c r="F2" s="21" t="s">
-        <v>341</v>
+        <v>263</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.25">
@@ -9271,10 +8497,10 @@
     </row>
     <row r="8" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
-        <v>262</v>
+        <v>187</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>334</v>
+        <v>256</v>
       </c>
       <c r="C8" s="7" t="str">
         <f>IF(A8="#",CONCATENATE(D8,",",B8),CONCATENATE(A8,",",B8))</f>
@@ -9287,10 +8513,10 @@
     </row>
     <row r="9" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
-        <v>263</v>
+        <v>188</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>330</v>
+        <v>252</v>
       </c>
       <c r="C9" s="7" t="str">
         <f t="shared" ref="C9:C129" si="1">IF(A9="#",CONCATENATE(D9,",",B9),CONCATENATE(A9,",",B9))</f>
@@ -9317,10 +8543,10 @@
     </row>
     <row r="11" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
-        <v>264</v>
+        <v>189</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>326</v>
+        <v>248</v>
       </c>
       <c r="C11" s="7" t="str">
         <f t="shared" si="1"/>
@@ -9333,10 +8559,10 @@
     </row>
     <row r="12" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
-        <v>265</v>
+        <v>190</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>323</v>
+        <v>245</v>
       </c>
       <c r="C12" s="7" t="str">
         <f t="shared" si="1"/>
@@ -9349,10 +8575,10 @@
     </row>
     <row r="13" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
-        <v>266</v>
+        <v>191</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>331</v>
+        <v>253</v>
       </c>
       <c r="C13" s="7" t="str">
         <f t="shared" si="1"/>
@@ -9365,10 +8591,10 @@
     </row>
     <row r="14" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
-        <v>267</v>
+        <v>192</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>325</v>
+        <v>247</v>
       </c>
       <c r="C14" s="7" t="str">
         <f t="shared" si="1"/>
@@ -9381,10 +8607,10 @@
     </row>
     <row r="15" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
-        <v>268</v>
+        <v>193</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>329</v>
+        <v>251</v>
       </c>
       <c r="C15" s="7" t="str">
         <f t="shared" si="1"/>
@@ -9397,10 +8623,10 @@
     </row>
     <row r="16" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
-        <v>269</v>
+        <v>194</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>335</v>
+        <v>257</v>
       </c>
       <c r="C16" s="7" t="str">
         <f t="shared" si="1"/>
@@ -9413,10 +8639,10 @@
     </row>
     <row r="17" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
-        <v>270</v>
+        <v>195</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>332</v>
+        <v>254</v>
       </c>
       <c r="C17" s="7" t="str">
         <f t="shared" si="1"/>
@@ -9429,10 +8655,10 @@
     </row>
     <row r="18" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
-        <v>271</v>
+        <v>196</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>324</v>
+        <v>246</v>
       </c>
       <c r="C18" s="7" t="str">
         <f t="shared" si="1"/>
@@ -9445,10 +8671,10 @@
     </row>
     <row r="19" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
-        <v>272</v>
+        <v>197</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>317</v>
+        <v>239</v>
       </c>
       <c r="C19" s="7" t="str">
         <f t="shared" si="1"/>
@@ -9461,10 +8687,10 @@
     </row>
     <row r="20" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
-        <v>169</v>
+        <v>120</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>314</v>
+        <v>236</v>
       </c>
       <c r="C20" s="7" t="str">
         <f t="shared" si="1"/>
@@ -9477,10 +8703,10 @@
     </row>
     <row r="21" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
-        <v>273</v>
+        <v>198</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>337</v>
+        <v>259</v>
       </c>
       <c r="C21" s="7" t="str">
         <f t="shared" si="1"/>
@@ -9605,10 +8831,10 @@
     </row>
     <row r="30" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="13" t="s">
-        <v>274</v>
+        <v>199</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>328</v>
+        <v>250</v>
       </c>
       <c r="C30" s="7" t="str">
         <f t="shared" si="1"/>
@@ -9649,10 +8875,10 @@
     </row>
     <row r="33" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="13" t="s">
-        <v>275</v>
+        <v>200</v>
       </c>
       <c r="B33" s="14" t="s">
-        <v>340</v>
+        <v>262</v>
       </c>
       <c r="C33" s="7" t="str">
         <f t="shared" si="1"/>
@@ -9665,10 +8891,10 @@
     </row>
     <row r="34" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="13" t="s">
-        <v>276</v>
+        <v>201</v>
       </c>
       <c r="B34" s="14" t="s">
-        <v>339</v>
+        <v>261</v>
       </c>
       <c r="C34" s="7" t="str">
         <f t="shared" si="1"/>
@@ -9695,10 +8921,10 @@
     </row>
     <row r="36" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="13" t="s">
-        <v>277</v>
+        <v>202</v>
       </c>
       <c r="B36" s="14" t="s">
-        <v>336</v>
+        <v>258</v>
       </c>
       <c r="C36" s="7" t="str">
         <f t="shared" si="1"/>
@@ -9879,10 +9105,10 @@
     </row>
     <row r="49" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="13" t="s">
-        <v>278</v>
+        <v>203</v>
       </c>
       <c r="B49" s="14" t="s">
-        <v>333</v>
+        <v>255</v>
       </c>
       <c r="C49" s="7" t="str">
         <f t="shared" si="1"/>
@@ -9895,10 +9121,10 @@
     </row>
     <row r="50" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="13" t="s">
-        <v>279</v>
+        <v>204</v>
       </c>
       <c r="B50" s="14" t="s">
-        <v>327</v>
+        <v>249</v>
       </c>
       <c r="C50" s="7" t="str">
         <f t="shared" si="1"/>
@@ -9911,10 +9137,10 @@
     </row>
     <row r="51" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="13" t="s">
-        <v>280</v>
+        <v>205</v>
       </c>
       <c r="B51" s="14" t="s">
-        <v>315</v>
+        <v>237</v>
       </c>
       <c r="C51" s="7" t="str">
         <f t="shared" si="1"/>
@@ -9927,10 +9153,10 @@
     </row>
     <row r="52" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="13" t="s">
-        <v>281</v>
+        <v>206</v>
       </c>
       <c r="B52" s="14" t="s">
-        <v>316</v>
+        <v>238</v>
       </c>
       <c r="C52" s="7" t="str">
         <f t="shared" si="1"/>
@@ -9943,10 +9169,10 @@
     </row>
     <row r="53" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="13" t="s">
-        <v>282</v>
+        <v>207</v>
       </c>
       <c r="B53" s="14" t="s">
-        <v>322</v>
+        <v>244</v>
       </c>
       <c r="C53" s="7" t="str">
         <f t="shared" si="1"/>
@@ -9959,10 +9185,10 @@
     </row>
     <row r="54" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="13" t="s">
-        <v>283</v>
+        <v>208</v>
       </c>
       <c r="B54" s="14" t="s">
-        <v>318</v>
+        <v>240</v>
       </c>
       <c r="C54" s="7" t="str">
         <f t="shared" si="1"/>
@@ -9975,10 +9201,10 @@
     </row>
     <row r="55" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="13" t="s">
-        <v>284</v>
+        <v>209</v>
       </c>
       <c r="B55" s="14" t="s">
-        <v>319</v>
+        <v>241</v>
       </c>
       <c r="C55" s="7" t="str">
         <f t="shared" si="1"/>
@@ -9991,10 +9217,10 @@
     </row>
     <row r="56" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="13" t="s">
-        <v>285</v>
+        <v>210</v>
       </c>
       <c r="B56" s="14" t="s">
-        <v>320</v>
+        <v>242</v>
       </c>
       <c r="C56" s="7" t="str">
         <f t="shared" si="1"/>
@@ -10007,10 +9233,10 @@
     </row>
     <row r="57" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="13" t="s">
-        <v>286</v>
+        <v>211</v>
       </c>
       <c r="B57" s="14" t="s">
-        <v>321</v>
+        <v>243</v>
       </c>
       <c r="C57" s="7" t="str">
         <f t="shared" si="1"/>
@@ -10023,10 +9249,10 @@
     </row>
     <row r="58" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="13" t="s">
-        <v>287</v>
+        <v>212</v>
       </c>
       <c r="B58" s="14" t="s">
-        <v>338</v>
+        <v>260</v>
       </c>
       <c r="C58" s="7" t="str">
         <f t="shared" si="1"/>
@@ -10277,7 +9503,7 @@
     </row>
     <row r="76" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="13" t="s">
-        <v>160</v>
+        <v>111</v>
       </c>
       <c r="B76" s="14" t="str">
         <f>CONCATENATE("igmp://239.49.8.",D76,":8000")</f>
@@ -10292,7 +9518,7 @@
       </c>
       <c r="E76" s="13"/>
       <c r="F76" s="21" t="s">
-        <v>342</v>
+        <v>264</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.25">
@@ -10330,8 +9556,8 @@
       <c r="E78" s="13"/>
     </row>
     <row r="79" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="13" t="s">
-        <v>288</v>
+      <c r="A79" s="22" t="s">
+        <v>121</v>
       </c>
       <c r="B79" s="14" t="str">
         <f t="shared" si="6"/>
@@ -10339,7 +9565,7 @@
       </c>
       <c r="C79" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>北京纪实HD,igmp://239.49.8.78:8000</v>
+        <v>CCTV16HD,igmp://239.49.8.78:8000</v>
       </c>
       <c r="D79" s="13">
         <v>78</v>
@@ -10348,7 +9574,7 @@
     </row>
     <row r="80" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="13" t="s">
-        <v>289</v>
+        <v>213</v>
       </c>
       <c r="B80" s="14" t="str">
         <f t="shared" si="6"/>
@@ -10365,7 +9591,7 @@
     </row>
     <row r="81" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="13" t="s">
-        <v>290</v>
+        <v>214</v>
       </c>
       <c r="B81" s="14" t="str">
         <f t="shared" si="6"/>
@@ -10416,7 +9642,7 @@
     </row>
     <row r="84" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="13" t="s">
-        <v>291</v>
+        <v>215</v>
       </c>
       <c r="B84" s="14" t="str">
         <f t="shared" si="6"/>
@@ -10450,7 +9676,7 @@
     </row>
     <row r="86" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="13" t="s">
-        <v>292</v>
+        <v>216</v>
       </c>
       <c r="B86" s="14" t="str">
         <f t="shared" si="6"/>
@@ -10484,7 +9710,7 @@
     </row>
     <row r="88" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="13" t="s">
-        <v>293</v>
+        <v>217</v>
       </c>
       <c r="B88" s="14" t="str">
         <f t="shared" si="6"/>
@@ -10501,7 +9727,7 @@
     </row>
     <row r="89" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="13" t="s">
-        <v>294</v>
+        <v>218</v>
       </c>
       <c r="B89" s="14" t="str">
         <f t="shared" si="6"/>
@@ -10518,7 +9744,7 @@
     </row>
     <row r="90" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="13" t="s">
-        <v>295</v>
+        <v>219</v>
       </c>
       <c r="B90" s="14" t="str">
         <f t="shared" si="6"/>
@@ -10535,7 +9761,7 @@
     </row>
     <row r="91" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="13" t="s">
-        <v>296</v>
+        <v>220</v>
       </c>
       <c r="B91" s="14" t="str">
         <f t="shared" si="6"/>
@@ -10552,7 +9778,7 @@
     </row>
     <row r="92" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="13" t="s">
-        <v>297</v>
+        <v>221</v>
       </c>
       <c r="B92" s="14" t="str">
         <f t="shared" si="6"/>
@@ -10569,7 +9795,7 @@
     </row>
     <row r="93" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="13" t="s">
-        <v>298</v>
+        <v>222</v>
       </c>
       <c r="B93" s="14" t="str">
         <f t="shared" si="6"/>
@@ -10586,7 +9812,7 @@
     </row>
     <row r="94" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="13" t="s">
-        <v>299</v>
+        <v>223</v>
       </c>
       <c r="B94" s="14" t="str">
         <f t="shared" si="6"/>
@@ -10603,7 +9829,7 @@
     </row>
     <row r="95" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="13" t="s">
-        <v>300</v>
+        <v>224</v>
       </c>
       <c r="B95" s="14" t="str">
         <f t="shared" si="6"/>
@@ -10824,7 +10050,7 @@
     </row>
     <row r="108" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="13" t="s">
-        <v>301</v>
+        <v>225</v>
       </c>
       <c r="B108" s="14" t="str">
         <f t="shared" si="6"/>
@@ -10841,7 +10067,7 @@
     </row>
     <row r="109" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="13" t="s">
-        <v>302</v>
+        <v>226</v>
       </c>
       <c r="B109" s="14" t="str">
         <f t="shared" si="6"/>
@@ -10875,7 +10101,7 @@
     </row>
     <row r="111" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="13" t="s">
-        <v>303</v>
+        <v>227</v>
       </c>
       <c r="B111" s="14" t="str">
         <f t="shared" si="6"/>
@@ -10892,7 +10118,7 @@
     </row>
     <row r="112" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="13" t="s">
-        <v>304</v>
+        <v>228</v>
       </c>
       <c r="B112" s="14" t="str">
         <f t="shared" si="6"/>
@@ -10909,7 +10135,7 @@
     </row>
     <row r="113" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="13" t="s">
-        <v>305</v>
+        <v>229</v>
       </c>
       <c r="B113" s="14" t="str">
         <f t="shared" si="6"/>
@@ -10926,7 +10152,7 @@
     </row>
     <row r="114" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="13" t="s">
-        <v>306</v>
+        <v>230</v>
       </c>
       <c r="B114" s="14" t="str">
         <f t="shared" si="6"/>
@@ -10943,7 +10169,7 @@
     </row>
     <row r="115" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="13" t="s">
-        <v>307</v>
+        <v>231</v>
       </c>
       <c r="B115" s="14" t="str">
         <f t="shared" si="6"/>
@@ -10960,7 +10186,7 @@
     </row>
     <row r="116" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="13" t="s">
-        <v>308</v>
+        <v>232</v>
       </c>
       <c r="B116" s="14" t="str">
         <f t="shared" si="6"/>
@@ -10994,7 +10220,7 @@
     </row>
     <row r="118" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="13" t="s">
-        <v>309</v>
+        <v>123</v>
       </c>
       <c r="B118" s="14" t="str">
         <f t="shared" si="6"/>
@@ -11002,7 +10228,7 @@
       </c>
       <c r="C118" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>江苏体育HD,igmp://239.49.8.117:8000</v>
+        <v>江苏体育休闲HD,igmp://239.49.8.117:8000</v>
       </c>
       <c r="D118" s="13">
         <v>117</v>
@@ -11011,7 +10237,7 @@
     </row>
     <row r="119" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="13" t="s">
-        <v>310</v>
+        <v>233</v>
       </c>
       <c r="B119" s="14" t="str">
         <f t="shared" si="6"/>
@@ -11028,7 +10254,7 @@
     </row>
     <row r="120" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="13" t="s">
-        <v>311</v>
+        <v>234</v>
       </c>
       <c r="B120" s="14" t="str">
         <f t="shared" si="6"/>
@@ -11045,7 +10271,7 @@
     </row>
     <row r="121" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="13" t="s">
-        <v>312</v>
+        <v>122</v>
       </c>
       <c r="B121" s="14" t="str">
         <f t="shared" si="6"/>
@@ -11053,7 +10279,7 @@
       </c>
       <c r="C121" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>江苏新闻HD,igmp://239.49.8.120:8000</v>
+        <v>江苏公共新闻HD,igmp://239.49.8.120:8000</v>
       </c>
       <c r="D121" s="13">
         <v>120</v>
@@ -11079,7 +10305,7 @@
     </row>
     <row r="123" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="13" t="s">
-        <v>313</v>
+        <v>235</v>
       </c>
       <c r="B123" s="14" t="str">
         <f t="shared" si="6"/>
@@ -11180,7 +10406,7 @@
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="13" t="s">
-        <v>200</v>
+        <v>277</v>
       </c>
       <c r="B130" s="14" t="str">
         <f>CONCATENATE("igmp://239.49.8.",D130,":6000")</f>
@@ -11188,19 +10414,19 @@
       </c>
       <c r="C130" s="7" t="str">
         <f>IF(A130="#",CONCATENATE(D130,",",B130),CONCATENATE(A130,",",B130))</f>
-        <v>CCTV1(HD),igmp://239.49.8.129:6000</v>
+        <v>CCTV1HD,igmp://239.49.8.129:6000</v>
       </c>
       <c r="D130" s="13">
         <v>129</v>
       </c>
       <c r="E130" s="13"/>
       <c r="F130" s="21" t="s">
-        <v>343</v>
+        <v>265</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="13" t="s">
-        <v>201</v>
+        <v>278</v>
       </c>
       <c r="B131" s="14" t="str">
         <f t="shared" ref="B131:B161" si="10">CONCATENATE("igmp://239.49.8.",D131,":6000")</f>
@@ -11208,7 +10434,7 @@
       </c>
       <c r="C131" s="7" t="str">
         <f t="shared" ref="C131:C194" si="11">IF(A131="#",CONCATENATE(D131,",",B131),CONCATENATE(A131,",",B131))</f>
-        <v>CCTV2(HD),igmp://239.49.8.130:6000</v>
+        <v>CCTV2HD,igmp://239.49.8.130:6000</v>
       </c>
       <c r="D131" s="13">
         <v>130</v>
@@ -11217,7 +10443,7 @@
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="13" t="s">
-        <v>202</v>
+        <v>279</v>
       </c>
       <c r="B132" s="14" t="str">
         <f t="shared" si="10"/>
@@ -11225,7 +10451,7 @@
       </c>
       <c r="C132" s="7" t="str">
         <f t="shared" si="11"/>
-        <v>CCTV4(HD),igmp://239.49.8.131:6000</v>
+        <v>CCTV4HD,igmp://239.49.8.131:6000</v>
       </c>
       <c r="D132" s="13">
         <v>131</v>
@@ -11234,7 +10460,7 @@
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" s="13" t="s">
-        <v>203</v>
+        <v>280</v>
       </c>
       <c r="B133" s="14" t="str">
         <f t="shared" si="10"/>
@@ -11242,7 +10468,7 @@
       </c>
       <c r="C133" s="7" t="str">
         <f t="shared" si="11"/>
-        <v>CCTV17(HD),igmp://239.49.8.132:6000</v>
+        <v>CCTV17HD,igmp://239.49.8.132:6000</v>
       </c>
       <c r="D133" s="13">
         <v>132</v>
@@ -11251,7 +10477,7 @@
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" s="13" t="s">
-        <v>204</v>
+        <v>281</v>
       </c>
       <c r="B134" s="14" t="str">
         <f t="shared" si="10"/>
@@ -11259,7 +10485,7 @@
       </c>
       <c r="C134" s="7" t="str">
         <f t="shared" si="11"/>
-        <v>CCTV9(HD),igmp://239.49.8.133:6000</v>
+        <v>CCTV9HD,igmp://239.49.8.133:6000</v>
       </c>
       <c r="D134" s="13">
         <v>133</v>
@@ -11268,7 +10494,7 @@
     </row>
     <row r="135" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="13" t="s">
-        <v>205</v>
+        <v>282</v>
       </c>
       <c r="B135" s="14" t="str">
         <f t="shared" si="10"/>
@@ -11276,7 +10502,7 @@
       </c>
       <c r="C135" s="7" t="str">
         <f t="shared" si="11"/>
-        <v>CCTV10(HD),igmp://239.49.8.134:6000</v>
+        <v>CCTV10HD,igmp://239.49.8.134:6000</v>
       </c>
       <c r="D135" s="13">
         <v>134</v>
@@ -11285,7 +10511,7 @@
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" s="13" t="s">
-        <v>206</v>
+        <v>283</v>
       </c>
       <c r="B136" s="14" t="str">
         <f t="shared" si="10"/>
@@ -11293,7 +10519,7 @@
       </c>
       <c r="C136" s="7" t="str">
         <f t="shared" si="11"/>
-        <v>CCTV12(HD),igmp://239.49.8.135:6000</v>
+        <v>CCTV12HD,igmp://239.49.8.135:6000</v>
       </c>
       <c r="D136" s="13">
         <v>135</v>
@@ -11302,7 +10528,7 @@
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" s="13" t="s">
-        <v>207</v>
+        <v>284</v>
       </c>
       <c r="B137" s="14" t="str">
         <f t="shared" si="10"/>
@@ -11310,7 +10536,7 @@
       </c>
       <c r="C137" s="7" t="str">
         <f t="shared" si="11"/>
-        <v>CCTV14(HD),igmp://239.49.8.136:6000</v>
+        <v>CCTV14HD,igmp://239.49.8.136:6000</v>
       </c>
       <c r="D137" s="13">
         <v>136</v>
@@ -11319,7 +10545,7 @@
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" s="13" t="s">
-        <v>208</v>
+        <v>285</v>
       </c>
       <c r="B138" s="14" t="str">
         <f t="shared" si="10"/>
@@ -11327,7 +10553,7 @@
       </c>
       <c r="C138" s="7" t="str">
         <f t="shared" si="11"/>
-        <v>CCTV5+(HD),igmp://239.49.8.137:6000</v>
+        <v>CCTV5+HD,igmp://239.49.8.137:6000</v>
       </c>
       <c r="D138" s="13">
         <v>137</v>
@@ -11336,7 +10562,7 @@
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" s="13" t="s">
-        <v>100</v>
+        <v>286</v>
       </c>
       <c r="B139" s="14" t="str">
         <f t="shared" si="10"/>
@@ -11344,7 +10570,7 @@
       </c>
       <c r="C139" s="7" t="str">
         <f t="shared" si="11"/>
-        <v>江苏卫视(HD),igmp://239.49.8.138:6000</v>
+        <v>江苏卫视HD,igmp://239.49.8.138:6000</v>
       </c>
       <c r="D139" s="13">
         <v>138</v>
@@ -11353,7 +10579,7 @@
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" s="13" t="s">
-        <v>101</v>
+        <v>287</v>
       </c>
       <c r="B140" s="14" t="str">
         <f t="shared" si="10"/>
@@ -11361,7 +10587,7 @@
       </c>
       <c r="C140" s="7" t="str">
         <f t="shared" si="11"/>
-        <v>浙江卫视(HD),igmp://239.49.8.139:6000</v>
+        <v>浙江卫视HD,igmp://239.49.8.139:6000</v>
       </c>
       <c r="D140" s="13">
         <v>139</v>
@@ -11370,7 +10596,7 @@
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" s="13" t="s">
-        <v>102</v>
+        <v>288</v>
       </c>
       <c r="B141" s="14" t="str">
         <f t="shared" si="10"/>
@@ -11378,7 +10604,7 @@
       </c>
       <c r="C141" s="7" t="str">
         <f t="shared" si="11"/>
-        <v>东方卫视(HD),igmp://239.49.8.140:6000</v>
+        <v>东方卫视HD,igmp://239.49.8.140:6000</v>
       </c>
       <c r="D141" s="13">
         <v>140</v>
@@ -11387,7 +10613,7 @@
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" s="13" t="s">
-        <v>103</v>
+        <v>289</v>
       </c>
       <c r="B142" s="14" t="str">
         <f t="shared" si="10"/>
@@ -11395,7 +10621,7 @@
       </c>
       <c r="C142" s="7" t="str">
         <f t="shared" si="11"/>
-        <v>北京卫视(HD),igmp://239.49.8.141:6000</v>
+        <v>北京卫视HD,igmp://239.49.8.141:6000</v>
       </c>
       <c r="D142" s="13">
         <v>141</v>
@@ -11404,7 +10630,7 @@
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" s="13" t="s">
-        <v>104</v>
+        <v>290</v>
       </c>
       <c r="B143" s="14" t="str">
         <f t="shared" si="10"/>
@@ -11412,7 +10638,7 @@
       </c>
       <c r="C143" s="7" t="str">
         <f t="shared" si="11"/>
-        <v>湖南卫视(HD),igmp://239.49.8.142:6000</v>
+        <v>湖南卫视HD,igmp://239.49.8.142:6000</v>
       </c>
       <c r="D143" s="13">
         <v>142</v>
@@ -11421,7 +10647,7 @@
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" s="13" t="s">
-        <v>105</v>
+        <v>291</v>
       </c>
       <c r="B144" s="14" t="str">
         <f t="shared" si="10"/>
@@ -11429,7 +10655,7 @@
       </c>
       <c r="C144" s="7" t="str">
         <f t="shared" si="11"/>
-        <v>广东卫视(HD),igmp://239.49.8.143:6000</v>
+        <v>广东卫视HD,igmp://239.49.8.143:6000</v>
       </c>
       <c r="D144" s="13">
         <v>143</v>
@@ -11438,7 +10664,7 @@
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="13" t="s">
-        <v>106</v>
+        <v>292</v>
       </c>
       <c r="B145" s="14" t="str">
         <f t="shared" si="10"/>
@@ -11446,7 +10672,7 @@
       </c>
       <c r="C145" s="7" t="str">
         <f t="shared" si="11"/>
-        <v>黑龙江卫视(HD),igmp://239.49.8.144:6000</v>
+        <v>黑龙江卫视HD,igmp://239.49.8.144:6000</v>
       </c>
       <c r="D145" s="13">
         <v>144</v>
@@ -11455,7 +10681,7 @@
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="13" t="s">
-        <v>107</v>
+        <v>293</v>
       </c>
       <c r="B146" s="14" t="str">
         <f t="shared" si="10"/>
@@ -11463,7 +10689,7 @@
       </c>
       <c r="C146" s="7" t="str">
         <f t="shared" si="11"/>
-        <v>深圳卫视(HD),igmp://239.49.8.145:6000</v>
+        <v>深圳卫视HD,igmp://239.49.8.145:6000</v>
       </c>
       <c r="D146" s="13">
         <v>145</v>
@@ -11472,7 +10698,7 @@
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="13" t="s">
-        <v>108</v>
+        <v>294</v>
       </c>
       <c r="B147" s="14" t="str">
         <f t="shared" si="10"/>
@@ -11480,7 +10706,7 @@
       </c>
       <c r="C147" s="7" t="str">
         <f t="shared" si="11"/>
-        <v>山东卫视(HD),igmp://239.49.8.146:6000</v>
+        <v>山东卫视HD,igmp://239.49.8.146:6000</v>
       </c>
       <c r="D147" s="13">
         <v>146</v>
@@ -11489,7 +10715,7 @@
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="13" t="s">
-        <v>109</v>
+        <v>295</v>
       </c>
       <c r="B148" s="14" t="str">
         <f t="shared" si="10"/>
@@ -11497,7 +10723,7 @@
       </c>
       <c r="C148" s="7" t="str">
         <f t="shared" si="11"/>
-        <v>湖北卫视(HD),igmp://239.49.8.147:6000</v>
+        <v>湖北卫视HD,igmp://239.49.8.147:6000</v>
       </c>
       <c r="D148" s="13">
         <v>147</v>
@@ -11506,7 +10732,7 @@
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="13" t="s">
-        <v>110</v>
+        <v>296</v>
       </c>
       <c r="B149" s="14" t="str">
         <f t="shared" si="10"/>
@@ -11514,7 +10740,7 @@
       </c>
       <c r="C149" s="7" t="str">
         <f t="shared" si="11"/>
-        <v>天津卫视(HD),igmp://239.49.8.148:6000</v>
+        <v>天津卫视HD,igmp://239.49.8.148:6000</v>
       </c>
       <c r="D149" s="13">
         <v>148</v>
@@ -11523,7 +10749,7 @@
     </row>
     <row r="150" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="13" t="s">
-        <v>111</v>
+        <v>297</v>
       </c>
       <c r="B150" s="14" t="str">
         <f t="shared" si="10"/>
@@ -11531,7 +10757,7 @@
       </c>
       <c r="C150" s="7" t="str">
         <f t="shared" si="11"/>
-        <v>重庆卫视(HD),igmp://239.49.8.149:6000</v>
+        <v>重庆卫视HD,igmp://239.49.8.149:6000</v>
       </c>
       <c r="D150" s="13">
         <v>149</v>
@@ -11540,7 +10766,7 @@
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="13" t="s">
-        <v>112</v>
+        <v>298</v>
       </c>
       <c r="B151" s="14" t="str">
         <f t="shared" si="10"/>
@@ -11548,7 +10774,7 @@
       </c>
       <c r="C151" s="7" t="str">
         <f t="shared" si="11"/>
-        <v>江苏导视(HD),igmp://239.49.8.150:6000</v>
+        <v>江苏导视HD,igmp://239.49.8.150:6000</v>
       </c>
       <c r="D151" s="13">
         <v>150</v>
@@ -11557,7 +10783,7 @@
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" s="13" t="s">
-        <v>113</v>
+        <v>299</v>
       </c>
       <c r="B152" s="14" t="str">
         <f t="shared" si="10"/>
@@ -11565,7 +10791,7 @@
       </c>
       <c r="C152" s="7" t="str">
         <f t="shared" si="11"/>
-        <v>游戏直播1(HD),igmp://239.49.8.151:6000</v>
+        <v>游戏直播1HD,igmp://239.49.8.151:6000</v>
       </c>
       <c r="D152" s="13">
         <v>151</v>
@@ -11574,7 +10800,7 @@
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" s="13" t="s">
-        <v>114</v>
+        <v>300</v>
       </c>
       <c r="B153" s="14" t="str">
         <f t="shared" si="10"/>
@@ -11582,7 +10808,7 @@
       </c>
       <c r="C153" s="7" t="str">
         <f t="shared" si="11"/>
-        <v>游戏直播2(HD),igmp://239.49.8.152:6000</v>
+        <v>游戏直播2HD,igmp://239.49.8.152:6000</v>
       </c>
       <c r="D153" s="13">
         <v>152</v>
@@ -11724,7 +10950,7 @@
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" s="13" t="s">
-        <v>115</v>
+        <v>301</v>
       </c>
       <c r="B161" s="14" t="str">
         <f t="shared" si="10"/>
@@ -11732,18 +10958,16 @@
       </c>
       <c r="C161" s="7" t="str">
         <f t="shared" si="11"/>
-        <v>百事通直播1(HD),igmp://239.49.8.160:6000</v>
+        <v>百事通直播1HD,igmp://239.49.8.160:6000</v>
       </c>
       <c r="D161" s="13">
         <v>160</v>
       </c>
-      <c r="E161" s="15" t="s">
-        <v>1</v>
-      </c>
+      <c r="E161" s="15"/>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" s="13" t="s">
-        <v>116</v>
+        <v>302</v>
       </c>
       <c r="B162" s="14" t="str">
         <f t="shared" ref="B162:B193" si="12">CONCATENATE("igmp://239.49.8.",D162,":6000")</f>
@@ -11751,18 +10975,16 @@
       </c>
       <c r="C162" s="7" t="str">
         <f t="shared" si="11"/>
-        <v>百事通直播2(HD),igmp://239.49.8.161:6000</v>
+        <v>百事通直播2HD,igmp://239.49.8.161:6000</v>
       </c>
       <c r="D162" s="13">
         <v>161</v>
       </c>
-      <c r="E162" s="15" t="s">
-        <v>1</v>
-      </c>
+      <c r="E162" s="15"/>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" s="13" t="s">
-        <v>117</v>
+        <v>303</v>
       </c>
       <c r="B163" s="14" t="str">
         <f t="shared" si="12"/>
@@ -11770,18 +10992,16 @@
       </c>
       <c r="C163" s="7" t="str">
         <f t="shared" si="11"/>
-        <v>百事通直播3(HD),igmp://239.49.8.162:6000</v>
+        <v>百事通直播3HD,igmp://239.49.8.162:6000</v>
       </c>
       <c r="D163" s="13">
         <v>162</v>
       </c>
-      <c r="E163" s="15" t="s">
-        <v>1</v>
-      </c>
+      <c r="E163" s="15"/>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" s="13" t="s">
-        <v>118</v>
+        <v>304</v>
       </c>
       <c r="B164" s="14" t="str">
         <f t="shared" si="12"/>
@@ -11789,18 +11009,16 @@
       </c>
       <c r="C164" s="7" t="str">
         <f t="shared" si="11"/>
-        <v>百事通直播4(HD),igmp://239.49.8.163:6000</v>
+        <v>百事通直播4HD,igmp://239.49.8.163:6000</v>
       </c>
       <c r="D164" s="13">
         <v>163</v>
       </c>
-      <c r="E164" s="15" t="s">
-        <v>1</v>
-      </c>
+      <c r="E164" s="15"/>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" s="13" t="s">
-        <v>119</v>
+        <v>305</v>
       </c>
       <c r="B165" s="14" t="str">
         <f t="shared" si="12"/>
@@ -11808,18 +11026,16 @@
       </c>
       <c r="C165" s="7" t="str">
         <f t="shared" si="11"/>
-        <v>百事通直播5(HD),igmp://239.49.8.164:6000</v>
+        <v>百事通直播5HD,igmp://239.49.8.164:6000</v>
       </c>
       <c r="D165" s="13">
         <v>164</v>
       </c>
-      <c r="E165" s="15" t="s">
-        <v>1</v>
-      </c>
+      <c r="E165" s="15"/>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" s="13" t="s">
-        <v>120</v>
+        <v>306</v>
       </c>
       <c r="B166" s="14" t="str">
         <f t="shared" si="12"/>
@@ -11827,18 +11043,16 @@
       </c>
       <c r="C166" s="7" t="str">
         <f t="shared" si="11"/>
-        <v>百事通直播6(HD),igmp://239.49.8.165:6000</v>
+        <v>百事通直播6HD,igmp://239.49.8.165:6000</v>
       </c>
       <c r="D166" s="13">
         <v>165</v>
       </c>
-      <c r="E166" s="15" t="s">
-        <v>1</v>
-      </c>
+      <c r="E166" s="15"/>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" s="13" t="s">
-        <v>121</v>
+        <v>307</v>
       </c>
       <c r="B167" s="14" t="str">
         <f t="shared" si="12"/>
@@ -11846,14 +11060,12 @@
       </c>
       <c r="C167" s="7" t="str">
         <f t="shared" si="11"/>
-        <v>百事通直播7(HD),igmp://239.49.8.166:6000</v>
+        <v>百事通直播7HD,igmp://239.49.8.166:6000</v>
       </c>
       <c r="D167" s="13">
         <v>166</v>
       </c>
-      <c r="E167" s="15" t="s">
-        <v>1</v>
-      </c>
+      <c r="E167" s="15"/>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" s="13" t="s">
@@ -11895,7 +11107,7 @@
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" s="13" t="s">
-        <v>122</v>
+        <v>308</v>
       </c>
       <c r="B170" s="14" t="str">
         <f t="shared" si="12"/>
@@ -11903,18 +11115,16 @@
       </c>
       <c r="C170" s="7" t="str">
         <f t="shared" si="11"/>
-        <v>百事通直播8(HD),igmp://239.49.8.169:6000</v>
+        <v>百事通直播8HD,igmp://239.49.8.169:6000</v>
       </c>
       <c r="D170" s="13">
         <v>169</v>
       </c>
-      <c r="E170" s="15" t="s">
-        <v>1</v>
-      </c>
+      <c r="E170" s="15"/>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" s="13" t="s">
-        <v>209</v>
+        <v>309</v>
       </c>
       <c r="B171" s="14" t="str">
         <f t="shared" si="12"/>
@@ -11922,7 +11132,7 @@
       </c>
       <c r="C171" s="7" t="str">
         <f t="shared" si="11"/>
-        <v>CCTV5(HD),igmp://239.49.8.170:6000</v>
+        <v>CCTV5HD,igmp://239.49.8.170:6000</v>
       </c>
       <c r="D171" s="13">
         <v>170</v>
@@ -11931,7 +11141,7 @@
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" s="13" t="s">
-        <v>123</v>
+        <v>310</v>
       </c>
       <c r="B172" s="14" t="str">
         <f t="shared" si="12"/>
@@ -11939,18 +11149,16 @@
       </c>
       <c r="C172" s="7" t="str">
         <f t="shared" si="11"/>
-        <v>百事通直播9(HD),igmp://239.49.8.171:6000</v>
+        <v>百事通直播9HD,igmp://239.49.8.171:6000</v>
       </c>
       <c r="D172" s="13">
         <v>171</v>
       </c>
-      <c r="E172" s="15" t="s">
-        <v>1</v>
-      </c>
+      <c r="E172" s="15"/>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" s="13" t="s">
-        <v>169</v>
+        <v>120</v>
       </c>
       <c r="B173" s="14" t="str">
         <f t="shared" si="12"/>
@@ -11967,7 +11175,7 @@
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" s="13" t="s">
-        <v>124</v>
+        <v>311</v>
       </c>
       <c r="B174" s="14" t="str">
         <f t="shared" si="12"/>
@@ -11975,7 +11183,7 @@
       </c>
       <c r="C174" s="7" t="str">
         <f t="shared" si="11"/>
-        <v>辽宁卫视(HD),igmp://239.49.8.173:6000</v>
+        <v>辽宁卫视HD,igmp://239.49.8.173:6000</v>
       </c>
       <c r="D174" s="13">
         <v>173</v>
@@ -11984,7 +11192,7 @@
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" s="13" t="s">
-        <v>125</v>
+        <v>312</v>
       </c>
       <c r="B175" s="14" t="str">
         <f t="shared" si="12"/>
@@ -11992,7 +11200,7 @@
       </c>
       <c r="C175" s="7" t="str">
         <f t="shared" si="11"/>
-        <v>贵州卫视(HD),igmp://239.49.8.174:6000</v>
+        <v>贵州卫视HD,igmp://239.49.8.174:6000</v>
       </c>
       <c r="D175" s="13">
         <v>174</v>
@@ -12001,7 +11209,7 @@
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" s="13" t="s">
-        <v>126</v>
+        <v>313</v>
       </c>
       <c r="B176" s="14" t="str">
         <f t="shared" si="12"/>
@@ -12009,7 +11217,7 @@
       </c>
       <c r="C176" s="7" t="str">
         <f t="shared" si="11"/>
-        <v>生活时尚(HD),igmp://239.49.8.175:6000</v>
+        <v>生活时尚HD,igmp://239.49.8.175:6000</v>
       </c>
       <c r="D176" s="13">
         <v>175</v>
@@ -12018,7 +11226,7 @@
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" s="13" t="s">
-        <v>127</v>
+        <v>314</v>
       </c>
       <c r="B177" s="14" t="str">
         <f t="shared" si="12"/>
@@ -12026,7 +11234,7 @@
       </c>
       <c r="C177" s="7" t="str">
         <f t="shared" si="11"/>
-        <v>游戏风云(HD),igmp://239.49.8.176:6000</v>
+        <v>游戏风云HD,igmp://239.49.8.176:6000</v>
       </c>
       <c r="D177" s="13">
         <v>176</v>
@@ -12035,7 +11243,7 @@
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" s="13" t="s">
-        <v>128</v>
+        <v>315</v>
       </c>
       <c r="B178" s="14" t="str">
         <f t="shared" si="12"/>
@@ -12043,7 +11251,7 @@
       </c>
       <c r="C178" s="7" t="str">
         <f t="shared" si="11"/>
-        <v>幸福彩(HD),igmp://239.49.8.177:6000</v>
+        <v>幸福彩HD,igmp://239.49.8.177:6000</v>
       </c>
       <c r="D178" s="13">
         <v>177</v>
@@ -12052,7 +11260,7 @@
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" s="13" t="s">
-        <v>129</v>
+        <v>316</v>
       </c>
       <c r="B179" s="14" t="str">
         <f t="shared" si="12"/>
@@ -12060,7 +11268,7 @@
       </c>
       <c r="C179" s="7" t="str">
         <f t="shared" si="11"/>
-        <v>动漫秀场(HD),igmp://239.49.8.178:6000</v>
+        <v>动漫秀场HD,igmp://239.49.8.178:6000</v>
       </c>
       <c r="D179" s="13">
         <v>178</v>
@@ -12069,7 +11277,7 @@
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" s="13" t="s">
-        <v>130</v>
+        <v>317</v>
       </c>
       <c r="B180" s="14" t="str">
         <f t="shared" si="12"/>
@@ -12077,7 +11285,7 @@
       </c>
       <c r="C180" s="7" t="str">
         <f t="shared" si="11"/>
-        <v>全纪实(HD),igmp://239.49.8.179:6000</v>
+        <v>全纪实HD,igmp://239.49.8.179:6000</v>
       </c>
       <c r="D180" s="13">
         <v>179</v>
@@ -12086,7 +11294,7 @@
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" s="13" t="s">
-        <v>131</v>
+        <v>318</v>
       </c>
       <c r="B181" s="14" t="str">
         <f t="shared" si="12"/>
@@ -12094,7 +11302,7 @@
       </c>
       <c r="C181" s="7" t="str">
         <f t="shared" si="11"/>
-        <v>都市剧场(HD),igmp://239.49.8.180:6000</v>
+        <v>都市剧场HD,igmp://239.49.8.180:6000</v>
       </c>
       <c r="D181" s="13">
         <v>180</v>
@@ -12103,7 +11311,7 @@
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" s="13" t="s">
-        <v>132</v>
+        <v>319</v>
       </c>
       <c r="B182" s="14" t="str">
         <f t="shared" si="12"/>
@@ -12111,7 +11319,7 @@
       </c>
       <c r="C182" s="7" t="str">
         <f t="shared" si="11"/>
-        <v>魅力足球(HD),igmp://239.49.8.181:6000</v>
+        <v>魅力足球HD,igmp://239.49.8.181:6000</v>
       </c>
       <c r="D182" s="13">
         <v>181</v>
@@ -12120,7 +11328,7 @@
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" s="13" t="s">
-        <v>133</v>
+        <v>96</v>
       </c>
       <c r="B183" s="14" t="str">
         <f t="shared" si="12"/>
@@ -12156,7 +11364,7 @@
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" s="13" t="s">
-        <v>134</v>
+        <v>320</v>
       </c>
       <c r="B185" s="14" t="str">
         <f t="shared" si="12"/>
@@ -12164,7 +11372,7 @@
       </c>
       <c r="C185" s="7" t="str">
         <f t="shared" si="11"/>
-        <v>四川卫视(HD),igmp://239.49.8.184:6000</v>
+        <v>四川卫视HD,igmp://239.49.8.184:6000</v>
       </c>
       <c r="D185" s="13">
         <v>184</v>
@@ -12173,7 +11381,7 @@
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" s="13" t="s">
-        <v>135</v>
+        <v>321</v>
       </c>
       <c r="B186" s="14" t="str">
         <f t="shared" si="12"/>
@@ -12181,7 +11389,7 @@
       </c>
       <c r="C186" s="7" t="str">
         <f t="shared" si="11"/>
-        <v>江西卫视(HD),igmp://239.49.8.185:6000</v>
+        <v>江西卫视HD,igmp://239.49.8.185:6000</v>
       </c>
       <c r="D186" s="13">
         <v>185</v>
@@ -12190,7 +11398,7 @@
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" s="13" t="s">
-        <v>136</v>
+        <v>322</v>
       </c>
       <c r="B187" s="14" t="str">
         <f t="shared" si="12"/>
@@ -12198,7 +11406,7 @@
       </c>
       <c r="C187" s="7" t="str">
         <f t="shared" si="11"/>
-        <v>东南卫视(HD),igmp://239.49.8.186:6000</v>
+        <v>东南卫视HD,igmp://239.49.8.186:6000</v>
       </c>
       <c r="D187" s="13">
         <v>186</v>
@@ -12207,7 +11415,7 @@
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" s="13" t="s">
-        <v>137</v>
+        <v>323</v>
       </c>
       <c r="B188" s="14" t="str">
         <f t="shared" si="12"/>
@@ -12215,7 +11423,7 @@
       </c>
       <c r="C188" s="7" t="str">
         <f t="shared" si="11"/>
-        <v>吉林卫视(HD),igmp://239.49.8.187:6000</v>
+        <v>吉林卫视HD,igmp://239.49.8.187:6000</v>
       </c>
       <c r="D188" s="13">
         <v>187</v>
@@ -12224,7 +11432,7 @@
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" s="13" t="s">
-        <v>138</v>
+        <v>324</v>
       </c>
       <c r="B189" s="14" t="str">
         <f t="shared" si="12"/>
@@ -12232,7 +11440,7 @@
       </c>
       <c r="C189" s="7" t="str">
         <f t="shared" si="11"/>
-        <v>河北卫视(HD),igmp://239.49.8.188:6000</v>
+        <v>河北卫视HD,igmp://239.49.8.188:6000</v>
       </c>
       <c r="D189" s="13">
         <v>188</v>
@@ -12241,7 +11449,7 @@
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" s="13" t="s">
-        <v>210</v>
+        <v>325</v>
       </c>
       <c r="B190" s="14" t="str">
         <f t="shared" si="12"/>
@@ -12249,7 +11457,7 @@
       </c>
       <c r="C190" s="7" t="str">
         <f t="shared" si="11"/>
-        <v>CETV1(HD),igmp://239.49.8.189:6000</v>
+        <v>CETV1HD,igmp://239.49.8.189:6000</v>
       </c>
       <c r="D190" s="13">
         <v>189</v>
@@ -12315,7 +11523,7 @@
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" s="13" t="s">
-        <v>139</v>
+        <v>97</v>
       </c>
       <c r="B194" s="14" t="str">
         <f t="shared" ref="B194:B225" si="13">CONCATENATE("igmp://239.49.8.",D194,":6000")</f>
@@ -12332,7 +11540,7 @@
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" s="13" t="s">
-        <v>140</v>
+        <v>98</v>
       </c>
       <c r="B195" s="14" t="str">
         <f t="shared" si="13"/>
@@ -12385,7 +11593,7 @@
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" s="13" t="s">
-        <v>141</v>
+        <v>326</v>
       </c>
       <c r="B198" s="14" t="str">
         <f t="shared" si="13"/>
@@ -12393,7 +11601,7 @@
       </c>
       <c r="C198" s="7" t="str">
         <f t="shared" si="14"/>
-        <v>河南卫视(HD),igmp://239.49.8.197:6000</v>
+        <v>河南卫视HD,igmp://239.49.8.197:6000</v>
       </c>
       <c r="D198" s="13">
         <v>197</v>
@@ -12478,7 +11686,7 @@
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" s="13" t="s">
-        <v>171</v>
+        <v>121</v>
       </c>
       <c r="B203" s="14" t="str">
         <f t="shared" si="13"/>
@@ -12495,7 +11703,7 @@
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" s="13" t="s">
-        <v>142</v>
+        <v>327</v>
       </c>
       <c r="B204" s="14" t="str">
         <f t="shared" si="13"/>
@@ -12503,7 +11711,7 @@
       </c>
       <c r="C204" s="7" t="str">
         <f t="shared" si="14"/>
-        <v>金鹰纪实(HD),igmp://239.49.8.203:6000</v>
+        <v>金鹰纪实HD,igmp://239.49.8.203:6000</v>
       </c>
       <c r="D204" s="13">
         <v>203</v>
@@ -12512,7 +11720,7 @@
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" s="13" t="s">
-        <v>143</v>
+        <v>328</v>
       </c>
       <c r="B205" s="14" t="str">
         <f t="shared" si="13"/>
@@ -12520,7 +11728,7 @@
       </c>
       <c r="C205" s="7" t="str">
         <f t="shared" si="14"/>
-        <v>安徽卫视(HD),igmp://239.49.8.204:6000</v>
+        <v>安徽卫视HD,igmp://239.49.8.204:6000</v>
       </c>
       <c r="D205" s="13">
         <v>204</v>
@@ -12529,7 +11737,7 @@
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" s="13" t="s">
-        <v>211</v>
+        <v>150</v>
       </c>
       <c r="B206" s="14" t="str">
         <f t="shared" si="13"/>
@@ -12542,13 +11750,11 @@
       <c r="D206" s="13">
         <v>205</v>
       </c>
-      <c r="E206" s="15" t="s">
-        <v>1</v>
-      </c>
+      <c r="E206" s="15"/>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" s="13" t="s">
-        <v>144</v>
+        <v>329</v>
       </c>
       <c r="B207" s="14" t="str">
         <f t="shared" si="13"/>
@@ -12556,7 +11762,7 @@
       </c>
       <c r="C207" s="7" t="str">
         <f t="shared" si="14"/>
-        <v>汽车频道(HD),igmp://239.49.8.206:6000</v>
+        <v>汽车频道HD,igmp://239.49.8.206:6000</v>
       </c>
       <c r="D207" s="13">
         <v>206</v>
@@ -12565,7 +11771,7 @@
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" s="13" t="s">
-        <v>212</v>
+        <v>151</v>
       </c>
       <c r="B208" s="14" t="str">
         <f t="shared" si="13"/>
@@ -12578,13 +11784,11 @@
       <c r="D208" s="13">
         <v>207</v>
       </c>
-      <c r="E208" s="15" t="s">
-        <v>1</v>
-      </c>
+      <c r="E208" s="15"/>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" s="13" t="s">
-        <v>213</v>
+        <v>152</v>
       </c>
       <c r="B209" s="14" t="str">
         <f t="shared" si="13"/>
@@ -12597,13 +11801,11 @@
       <c r="D209" s="13">
         <v>208</v>
       </c>
-      <c r="E209" s="15" t="s">
-        <v>1</v>
-      </c>
+      <c r="E209" s="15"/>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" s="13" t="s">
-        <v>145</v>
+        <v>330</v>
       </c>
       <c r="B210" s="14" t="str">
         <f t="shared" si="13"/>
@@ -12611,7 +11813,7 @@
       </c>
       <c r="C210" s="7" t="str">
         <f t="shared" si="14"/>
-        <v>广西卫视(HD),igmp://239.49.8.209:6000</v>
+        <v>广西卫视HD,igmp://239.49.8.209:6000</v>
       </c>
       <c r="D210" s="13">
         <v>209</v>
@@ -12658,7 +11860,7 @@
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" s="13" t="s">
-        <v>146</v>
+        <v>331</v>
       </c>
       <c r="B213" s="14" t="str">
         <f t="shared" si="13"/>
@@ -12666,7 +11868,7 @@
       </c>
       <c r="C213" s="7" t="str">
         <f t="shared" si="14"/>
-        <v>海南卫视(HD),igmp://239.49.8.212:6000</v>
+        <v>海南卫视HD,igmp://239.49.8.212:6000</v>
       </c>
       <c r="D213" s="13">
         <v>212</v>
@@ -12863,7 +12065,7 @@
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" s="13" t="s">
-        <v>199</v>
+        <v>149</v>
       </c>
       <c r="B224" s="14" t="str">
         <f t="shared" si="13"/>
@@ -12937,7 +12139,7 @@
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" s="13" t="s">
-        <v>147</v>
+        <v>332</v>
       </c>
       <c r="B228" s="14" t="str">
         <f t="shared" si="15"/>
@@ -12945,7 +12147,7 @@
       </c>
       <c r="C228" s="7" t="str">
         <f t="shared" si="14"/>
-        <v>云南卫视(HD),igmp://239.49.8.227:6000</v>
+        <v>云南卫视HD,igmp://239.49.8.227:6000</v>
       </c>
       <c r="D228" s="13">
         <v>227</v>
@@ -12954,7 +12156,7 @@
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" s="13" t="s">
-        <v>148</v>
+        <v>99</v>
       </c>
       <c r="B229" s="14" t="str">
         <f t="shared" si="15"/>
@@ -12971,7 +12173,7 @@
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" s="13" t="s">
-        <v>149</v>
+        <v>100</v>
       </c>
       <c r="B230" s="14" t="str">
         <f t="shared" si="15"/>
@@ -12988,7 +12190,7 @@
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" s="13" t="s">
-        <v>150</v>
+        <v>101</v>
       </c>
       <c r="B231" s="14" t="str">
         <f t="shared" si="15"/>
@@ -13005,7 +12207,7 @@
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" s="13" t="s">
-        <v>133</v>
+        <v>96</v>
       </c>
       <c r="B232" s="14" t="str">
         <f t="shared" si="15"/>
@@ -13469,10 +12671,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{644BA1E9-D383-4AED-81B5-0DFDD28A2589}">
   <dimension ref="A1:E127"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C17" sqref="C17"/>
-      <selection pane="bottomLeft" activeCell="B20" sqref="B20"/>
+      <selection pane="bottomLeft" activeCell="F57" sqref="F57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -13486,7 +12688,7 @@
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
-        <v>157</v>
+        <v>108</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>5</v>
@@ -13503,7 +12705,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>154</v>
+        <v>105</v>
       </c>
       <c r="B2" s="14" t="str">
         <f>CONCATENATE("igmp://239.49.9.",D2,":6000")</f>
@@ -13533,13 +12735,11 @@
       <c r="D3" s="13">
         <v>2</v>
       </c>
-      <c r="E3" s="15" t="s">
-        <v>1</v>
-      </c>
+      <c r="E3" s="15"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
-        <v>155</v>
+        <v>106</v>
       </c>
       <c r="B4" s="14" t="str">
         <f t="shared" si="0"/>
@@ -13556,7 +12756,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
-        <v>156</v>
+        <v>107</v>
       </c>
       <c r="B5" s="14" t="str">
         <f t="shared" si="0"/>
@@ -13573,7 +12773,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
-        <v>176</v>
+        <v>126</v>
       </c>
       <c r="B6" s="14" t="str">
         <f t="shared" si="0"/>
@@ -13590,7 +12790,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
-        <v>177</v>
+        <v>127</v>
       </c>
       <c r="B7" s="14" t="str">
         <f t="shared" si="0"/>
@@ -13607,7 +12807,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
-        <v>178</v>
+        <v>128</v>
       </c>
       <c r="B8" s="14" t="str">
         <f t="shared" si="0"/>
@@ -13624,7 +12824,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
-        <v>179</v>
+        <v>129</v>
       </c>
       <c r="B9" s="14" t="str">
         <f t="shared" si="0"/>
@@ -13641,7 +12841,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
-        <v>180</v>
+        <v>130</v>
       </c>
       <c r="B10" s="14" t="str">
         <f t="shared" si="0"/>
@@ -13658,7 +12858,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
-        <v>181</v>
+        <v>131</v>
       </c>
       <c r="B11" s="14" t="str">
         <f t="shared" si="0"/>
@@ -13675,7 +12875,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
-        <v>182</v>
+        <v>132</v>
       </c>
       <c r="B12" s="14" t="str">
         <f t="shared" si="0"/>
@@ -13692,7 +12892,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
-        <v>183</v>
+        <v>133</v>
       </c>
       <c r="B13" s="14" t="str">
         <f t="shared" si="0"/>
@@ -13709,7 +12909,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
-        <v>184</v>
+        <v>134</v>
       </c>
       <c r="B14" s="14" t="str">
         <f t="shared" si="0"/>
@@ -13726,7 +12926,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
-        <v>185</v>
+        <v>135</v>
       </c>
       <c r="B15" s="14" t="str">
         <f t="shared" si="0"/>
@@ -13743,7 +12943,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
-        <v>186</v>
+        <v>136</v>
       </c>
       <c r="B16" s="14" t="str">
         <f t="shared" si="0"/>
@@ -13760,7 +12960,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
-        <v>198</v>
+        <v>148</v>
       </c>
       <c r="B17" s="14" t="str">
         <f t="shared" si="0"/>
@@ -13773,9 +12973,7 @@
       <c r="D17" s="13">
         <v>16</v>
       </c>
-      <c r="E17" s="15" t="s">
-        <v>1</v>
-      </c>
+      <c r="E17" s="15"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
@@ -13796,7 +12994,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
-        <v>153</v>
+        <v>104</v>
       </c>
       <c r="B19" s="14" t="str">
         <f t="shared" si="0"/>
@@ -13813,7 +13011,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
-        <v>158</v>
+        <v>109</v>
       </c>
       <c r="B20" s="14" t="str">
         <f t="shared" si="0"/>
@@ -13830,7 +13028,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="20" t="s">
-        <v>260</v>
+        <v>185</v>
       </c>
       <c r="B21" s="14" t="str">
         <f t="shared" si="0"/>
@@ -13847,7 +13045,7 @@
     </row>
     <row r="22" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
-        <v>159</v>
+        <v>110</v>
       </c>
       <c r="B22" s="14" t="str">
         <f t="shared" si="0"/>
@@ -13864,7 +13062,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
-        <v>187</v>
+        <v>137</v>
       </c>
       <c r="B23" s="14" t="str">
         <f t="shared" si="0"/>
@@ -13881,7 +13079,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
-        <v>188</v>
+        <v>138</v>
       </c>
       <c r="B24" s="14" t="str">
         <f t="shared" si="0"/>
@@ -14017,7 +13215,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="13" t="s">
-        <v>189</v>
+        <v>139</v>
       </c>
       <c r="B32" s="14" t="str">
         <f t="shared" si="0"/>
@@ -14034,7 +13232,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="13" t="s">
-        <v>160</v>
+        <v>111</v>
       </c>
       <c r="B33" s="14" t="str">
         <f t="shared" si="0"/>
@@ -14051,7 +13249,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="13" t="s">
-        <v>190</v>
+        <v>140</v>
       </c>
       <c r="B34" s="14" t="str">
         <f t="shared" si="0"/>
@@ -14068,7 +13266,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="13" t="s">
-        <v>191</v>
+        <v>141</v>
       </c>
       <c r="B35" s="14" t="str">
         <f t="shared" si="0"/>
@@ -14085,7 +13283,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="13" t="s">
-        <v>192</v>
+        <v>142</v>
       </c>
       <c r="B36" s="14" t="str">
         <f t="shared" si="0"/>
@@ -14102,7 +13300,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="13" t="s">
-        <v>193</v>
+        <v>143</v>
       </c>
       <c r="B37" s="14" t="str">
         <f t="shared" si="0"/>
@@ -14119,7 +13317,7 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="13" t="s">
-        <v>173</v>
+        <v>123</v>
       </c>
       <c r="B38" s="14" t="str">
         <f t="shared" si="0"/>
@@ -14136,7 +13334,7 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="13" t="s">
-        <v>194</v>
+        <v>144</v>
       </c>
       <c r="B39" s="14" t="str">
         <f t="shared" si="0"/>
@@ -14153,7 +13351,7 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="13" t="s">
-        <v>195</v>
+        <v>145</v>
       </c>
       <c r="B40" s="14" t="str">
         <f t="shared" si="0"/>
@@ -14170,7 +13368,7 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="13" t="s">
-        <v>172</v>
+        <v>122</v>
       </c>
       <c r="B41" s="14" t="str">
         <f t="shared" si="0"/>
@@ -14187,7 +13385,7 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="13" t="s">
-        <v>196</v>
+        <v>146</v>
       </c>
       <c r="B42" s="14" t="str">
         <f t="shared" si="0"/>
@@ -14204,7 +13402,7 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="13" t="s">
-        <v>197</v>
+        <v>147</v>
       </c>
       <c r="B43" s="14" t="str">
         <f t="shared" si="0"/>
@@ -14221,7 +13419,7 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="13" t="s">
-        <v>166</v>
+        <v>117</v>
       </c>
       <c r="B44" s="14" t="str">
         <f t="shared" si="0"/>
@@ -14255,7 +13453,7 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="13" t="s">
-        <v>236</v>
+        <v>174</v>
       </c>
       <c r="B46" s="14" t="str">
         <f t="shared" si="0"/>
@@ -14272,7 +13470,7 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="13" t="s">
-        <v>174</v>
+        <v>124</v>
       </c>
       <c r="B47" s="14" t="str">
         <f t="shared" si="0"/>
@@ -14289,7 +13487,7 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="13" t="s">
-        <v>161</v>
+        <v>112</v>
       </c>
       <c r="B48" s="14" t="str">
         <f t="shared" si="0"/>
@@ -14306,7 +13504,7 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="13" t="s">
-        <v>162</v>
+        <v>113</v>
       </c>
       <c r="B49" s="14" t="str">
         <f t="shared" si="0"/>
@@ -14340,7 +13538,7 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="13" t="s">
-        <v>163</v>
+        <v>114</v>
       </c>
       <c r="B51" s="14" t="str">
         <f t="shared" si="0"/>
@@ -14357,7 +13555,7 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="13" t="s">
-        <v>261</v>
+        <v>186</v>
       </c>
       <c r="B52" s="14" t="str">
         <f t="shared" si="0"/>
@@ -14374,7 +13572,7 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="13" t="s">
-        <v>160</v>
+        <v>111</v>
       </c>
       <c r="B53" s="14" t="str">
         <f t="shared" si="0"/>
@@ -14391,7 +13589,7 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="13" t="s">
-        <v>165</v>
+        <v>116</v>
       </c>
       <c r="B54" s="14" t="str">
         <f t="shared" si="0"/>
@@ -14408,7 +13606,7 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="13" t="s">
-        <v>169</v>
+        <v>120</v>
       </c>
       <c r="B55" s="14" t="str">
         <f t="shared" si="0"/>
@@ -14425,7 +13623,7 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="13" t="s">
-        <v>168</v>
+        <v>119</v>
       </c>
       <c r="B56" s="14" t="str">
         <f t="shared" si="0"/>
@@ -14442,7 +13640,7 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="13" t="s">
-        <v>175</v>
+        <v>125</v>
       </c>
       <c r="B57" s="14" t="str">
         <f t="shared" si="0"/>
@@ -14458,8 +13656,8 @@
       <c r="E57" s="13"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="13" t="s">
-        <v>170</v>
+      <c r="A58" s="15" t="s">
+        <v>344</v>
       </c>
       <c r="B58" s="14" t="str">
         <f t="shared" si="0"/>
@@ -14467,7 +13665,7 @@
       </c>
       <c r="C58" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>HZ综合？,igmp://239.49.9.57:6000</v>
+        <v>洪泽综合,igmp://239.49.9.57:6000</v>
       </c>
       <c r="D58" s="13">
         <v>57</v>
@@ -14476,7 +13674,7 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="13" t="s">
-        <v>171</v>
+        <v>121</v>
       </c>
       <c r="B59" s="14" t="str">
         <f t="shared" si="0"/>
